--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F8986-83CE-4375-B35F-CCF0A8380F54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4E6A1-6B62-4C44-BE4F-B7A46FFD6E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -249,9 +249,6 @@
     <t>Z12</t>
   </si>
   <si>
-    <t>Md Atikur Rahman</t>
-  </si>
-  <si>
     <t>V48</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t xml:space="preserve">                      Address: Rozy Market, Station Bazar, Natore</t>
+  </si>
+  <si>
+    <t>Md Haider Khan</t>
   </si>
 </sst>
 </file>
@@ -639,6 +639,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,33 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2931,6 +2931,57 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9025D057-A950-4C8A-B845-FC9892FB667B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1228725" y="809625"/>
+          <a:ext cx="0" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3277,7 +3328,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3299,38 +3350,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -3365,10 +3416,10 @@
       <c r="K4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="M4" s="53"/>
+      <c r="L4" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3723,7 +3774,7 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I19" s="28">
         <v>3340</v>
@@ -3746,7 +3797,7 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="28">
         <v>3620</v>
@@ -3925,13 +3976,13 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="50"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -3942,14 +3993,14 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="54" t="s">
+      <c r="H29" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="55"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12"/>
@@ -3965,10 +4016,10 @@
       <c r="I30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="56"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -3985,7 +4036,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="56"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -4002,7 +4053,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="56"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -4019,7 +4070,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="56"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -4036,7 +4087,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="56"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -4053,7 +4104,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="56"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -4070,7 +4121,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="56"/>
+      <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -4087,7 +4138,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="56"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -4104,7 +4155,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="56"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -4121,43 +4172,43 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="57"/>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -4175,25 +4226,25 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="18"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -4201,9 +4252,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="18"/>
       <c r="J44" s="2"/>
       <c r="K44" s="18"/>
@@ -4218,6 +4269,13 @@
     <sortCondition ref="H6"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -4226,13 +4284,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D4E6A1-6B62-4C44-BE4F-B7A46FFD6E95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCEEE4D-0FC9-4680-99C3-9E60329E3431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>BL60</t>
   </si>
@@ -258,7 +258,16 @@
     <t xml:space="preserve">                      Address: Rozy Market, Station Bazar, Natore</t>
   </si>
   <si>
-    <t>Md Haider Khan</t>
+    <t>B24</t>
+  </si>
+  <si>
+    <t>BL98</t>
+  </si>
+  <si>
+    <t>D72</t>
+  </si>
+  <si>
+    <t>Md Kamrul Islam</t>
   </si>
 </sst>
 </file>
@@ -636,8 +645,8 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2936,13 +2945,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2959,7 +2968,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1228725" y="809625"/>
+          <a:off x="1276350" y="809625"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -3327,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3417,7 +3426,7 @@
         <v>50</v>
       </c>
       <c r="L4" s="42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" s="43"/>
     </row>
@@ -3508,11 +3517,9 @@
     </row>
     <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="26">
-        <v>790</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B8" s="26"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -3531,10 +3538,10 @@
     </row>
     <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B9" s="26">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -3554,10 +3561,10 @@
     </row>
     <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B10" s="26">
-        <v>915</v>
+        <v>800</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
@@ -3577,10 +3584,10 @@
     </row>
     <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B11" s="26">
-        <v>845</v>
+        <v>915</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3600,10 +3607,10 @@
     </row>
     <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="26">
-        <v>880</v>
+        <v>845</v>
       </c>
       <c r="C12" s="27"/>
       <c r="D12" s="27"/>
@@ -3622,12 +3629,10 @@
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="26">
-        <v>900</v>
-      </c>
+      <c r="A13" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="28"/>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -3648,10 +3653,10 @@
     </row>
     <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B14" s="26">
-        <v>1040</v>
+        <v>880</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3671,10 +3676,10 @@
     </row>
     <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B15" s="26">
-        <v>930</v>
+        <v>900</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3694,10 +3699,10 @@
     </row>
     <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="B16" s="26">
-        <v>1190</v>
+        <v>1040</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27"/>
@@ -3717,10 +3722,10 @@
     </row>
     <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B17" s="26">
-        <v>1170</v>
+        <v>930</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
@@ -3739,11 +3744,11 @@
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="27">
-        <v>1070</v>
+      <c r="A18" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="26">
+        <v>1190</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
@@ -3763,10 +3768,10 @@
     </row>
     <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B19" s="26">
-        <v>1100</v>
+        <v>1170</v>
       </c>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
@@ -3785,12 +3790,10 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="27">
-        <v>1160</v>
-      </c>
+      <c r="A20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="28"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
@@ -3808,11 +3811,11 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="26">
-        <v>1010</v>
+      <c r="A21" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="27">
+        <v>1070</v>
       </c>
       <c r="C21" s="27"/>
       <c r="D21" s="27"/>
@@ -3832,10 +3835,10 @@
     </row>
     <row r="22" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B22" s="26">
-        <v>970</v>
+        <v>1100</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -3854,11 +3857,11 @@
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="26">
-        <v>1050</v>
+      <c r="A23" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="27">
+        <v>1160</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
@@ -3878,10 +3881,10 @@
     </row>
     <row r="24" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="25">
-        <v>1190</v>
+        <v>8</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1010</v>
       </c>
       <c r="C24" s="27"/>
       <c r="D24" s="27"/>
@@ -3900,11 +3903,11 @@
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="27">
-        <v>1100</v>
+      <c r="A25" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="26">
+        <v>970</v>
       </c>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
@@ -3923,11 +3926,11 @@
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="27">
-        <v>1250</v>
+      <c r="A26" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1050</v>
       </c>
       <c r="C26" s="27"/>
       <c r="D26" s="27"/>
@@ -3946,11 +3949,11 @@
       <c r="S26" s="2"/>
     </row>
     <row r="27" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="27">
-        <v>1370</v>
+      <c r="A27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="25">
+        <v>1190</v>
       </c>
       <c r="C27" s="27"/>
       <c r="D27" s="27"/>
@@ -3969,8 +3972,12 @@
       <c r="S27" s="2"/>
     </row>
     <row r="28" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="A28" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="27">
+        <v>1100</v>
+      </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -3986,8 +3993,12 @@
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="27">
+        <v>1250</v>
+      </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
@@ -4003,8 +4014,12 @@
       <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="27">
+        <v>1370</v>
+      </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -4265,8 +4280,8 @@
       <c r="N48" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="H7:I27">
-    <sortCondition ref="H6"/>
+  <sortState ref="A6:B30">
+    <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
     <mergeCell ref="D40:I41"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCEEE4D-0FC9-4680-99C3-9E60329E3431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06FB4B5-29C9-4D6A-BB52-96EF86DB600C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allocation Sheet" sheetId="3" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <t>D72</t>
   </si>
   <si>
-    <t>Md Kamrul Islam</t>
+    <t>Md Haider Khan</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,48 +715,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3336,8 +3336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3359,38 +3359,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -3425,10 +3425,10 @@
       <c r="K4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3529,7 +3529,7 @@
         <v>27</v>
       </c>
       <c r="I8" s="28">
-        <v>5470</v>
+        <v>5010</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -3632,7 +3632,9 @@
       <c r="A13" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="28">
+        <v>820</v>
+      </c>
       <c r="C13" s="27"/>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
@@ -3642,7 +3644,7 @@
         <v>33</v>
       </c>
       <c r="I13" s="30">
-        <v>6890</v>
+        <v>6470</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
@@ -3983,13 +3985,13 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -4004,14 +4006,14 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
@@ -4031,10 +4033,10 @@
       <c r="I30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="37"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -4051,7 +4053,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="37"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -4068,7 +4070,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -4085,7 +4087,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="37"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -4102,7 +4104,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="37"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -4119,7 +4121,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="37"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -4136,7 +4138,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="37"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -4153,7 +4155,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="37"/>
+      <c r="M37" s="51"/>
     </row>
     <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -4170,7 +4172,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="37"/>
+      <c r="M38" s="51"/>
     </row>
     <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -4187,43 +4189,43 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="38"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="44" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -4241,25 +4243,25 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="2"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="18"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="51" t="s">
+      <c r="K43" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -4267,9 +4269,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="18"/>
       <c r="J44" s="2"/>
       <c r="K44" s="18"/>
@@ -4284,13 +4286,6 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -4299,6 +4294,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06FB4B5-29C9-4D6A-BB52-96EF86DB600C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1494F-EABC-4051-8DC4-5B7061037D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Allocation Sheet" sheetId="3" r:id="rId1"/>
@@ -267,7 +267,7 @@
     <t>D72</t>
   </si>
   <si>
-    <t>Md Haider Khan</t>
+    <t>Md Atikur Rahman</t>
   </si>
 </sst>
 </file>
@@ -648,6 +648,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,33 +715,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3337,7 +3337,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3359,38 +3359,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -3425,10 +3425,10 @@
       <c r="K4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3519,7 +3519,9 @@
       <c r="A8" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="26">
+        <v>740</v>
+      </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -3761,7 +3763,7 @@
         <v>30</v>
       </c>
       <c r="I18" s="28">
-        <v>4550</v>
+        <v>4180</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3985,13 +3987,13 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="53" t="s">
+      <c r="H28" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="53"/>
+      <c r="I28" s="39"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,14 +4008,14 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="49" t="s">
+      <c r="H29" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="36"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
@@ -4033,10 +4035,10 @@
       <c r="I30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="51"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="37"/>
     </row>
     <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -4053,7 +4055,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="51"/>
+      <c r="M31" s="37"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -4070,7 +4072,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="51"/>
+      <c r="M32" s="37"/>
     </row>
     <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -4087,7 +4089,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="51"/>
+      <c r="M33" s="37"/>
     </row>
     <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -4104,7 +4106,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="51"/>
+      <c r="M34" s="37"/>
     </row>
     <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -4121,7 +4123,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="51"/>
+      <c r="M35" s="37"/>
     </row>
     <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -4138,7 +4140,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="51"/>
+      <c r="M36" s="37"/>
     </row>
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -4155,7 +4157,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="51"/>
+      <c r="M37" s="37"/>
     </row>
     <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -4172,7 +4174,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="51"/>
+      <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -4189,43 +4191,43 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="52"/>
+      <c r="M39" s="38"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="35" t="s">
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="37" t="s">
+      <c r="K40" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="47"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="49"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -4243,25 +4245,25 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="2"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="18"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="42" t="s">
+      <c r="K43" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -4269,9 +4271,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
       <c r="I44" s="18"/>
       <c r="J44" s="2"/>
       <c r="K44" s="18"/>
@@ -4286,6 +4288,13 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -4294,13 +4303,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E1494F-EABC-4051-8DC4-5B7061037D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92CC668-7165-42C6-BF9B-D14749EB6154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>BL60</t>
   </si>
@@ -267,7 +267,13 @@
     <t>D72</t>
   </si>
   <si>
-    <t>Md Atikur Rahman</t>
+    <t>i30</t>
+  </si>
+  <si>
+    <t>i110</t>
+  </si>
+  <si>
+    <t>Md Kamrul Islam</t>
   </si>
 </sst>
 </file>
@@ -648,6 +654,48 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -673,48 +721,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3337,7 +3343,7 @@
   <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3359,38 +3365,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
@@ -3425,10 +3431,10 @@
       <c r="K4" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" s="43"/>
+      <c r="L4" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="57"/>
     </row>
     <row r="5" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -3551,11 +3557,9 @@
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
       <c r="H9" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="28">
-        <v>5750</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="I9" s="28"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -3574,10 +3578,10 @@
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="29" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I10" s="28">
-        <v>5550</v>
+        <v>5750</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -3597,10 +3601,10 @@
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="25" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I11" s="28">
-        <v>5940</v>
+        <v>5550</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -3620,10 +3624,10 @@
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="25" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="I12" s="28">
-        <v>6030</v>
+        <v>5940</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -3643,10 +3647,10 @@
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="25" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="I13" s="30">
-        <v>6470</v>
+        <v>6030</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
@@ -3668,10 +3672,10 @@
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="29" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I14" s="30">
-        <v>5750</v>
+        <v>6470</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -3691,10 +3695,10 @@
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="29" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I15" s="28">
-        <v>3610</v>
+        <v>8340</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3714,10 +3718,10 @@
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="25" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="I16" s="30">
-        <v>3890</v>
+        <v>5750</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3737,10 +3741,10 @@
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="25" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="I17" s="28">
-        <v>4280</v>
+        <v>3610</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
@@ -3760,10 +3764,10 @@
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="29" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I18" s="28">
-        <v>4180</v>
+        <v>3890</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -3783,10 +3787,10 @@
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="25" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="I19" s="28">
-        <v>3340</v>
+        <v>4280</v>
       </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -3804,10 +3808,10 @@
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="29" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="I20" s="28">
-        <v>3620</v>
+        <v>4180</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -3827,10 +3831,10 @@
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
       <c r="H21" s="29" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I21" s="30">
-        <v>3710</v>
+        <v>3340</v>
       </c>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -3850,10 +3854,10 @@
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I22" s="30">
-        <v>7350</v>
+        <v>3620</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
@@ -3873,10 +3877,10 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="29" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I23" s="28">
-        <v>7890</v>
+        <v>3710</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
@@ -3896,10 +3900,10 @@
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="29" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I24" s="28">
-        <v>8310</v>
+        <v>7350</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11"/>
@@ -3919,10 +3923,10 @@
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="29" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="I25" s="28">
-        <v>8310</v>
+        <v>7890</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11"/>
@@ -3941,8 +3945,12 @@
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
+      <c r="H26" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="28">
+        <v>8310</v>
+      </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
@@ -3964,8 +3972,12 @@
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
+      <c r="H27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="28">
+        <v>8310</v>
+      </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
@@ -3987,13 +3999,13 @@
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="39"/>
+      <c r="I28" s="53"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
       <c r="M28" s="16"/>
     </row>
     <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -4008,14 +4020,14 @@
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="35" t="s">
+      <c r="H29" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="50"/>
     </row>
     <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
@@ -4035,10 +4047,10 @@
       <c r="I30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39"/>
-      <c r="M30" s="37"/>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="51"/>
     </row>
     <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
@@ -4055,7 +4067,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="37"/>
+      <c r="M31" s="51"/>
     </row>
     <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
@@ -4072,7 +4084,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="11"/>
       <c r="L32" s="11"/>
-      <c r="M32" s="37"/>
+      <c r="M32" s="51"/>
     </row>
     <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12"/>
@@ -4089,7 +4101,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="11"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="37"/>
+      <c r="M33" s="51"/>
     </row>
     <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="12"/>
@@ -4106,7 +4118,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="37"/>
+      <c r="M34" s="51"/>
     </row>
     <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
@@ -4123,7 +4135,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="37"/>
+      <c r="M35" s="51"/>
     </row>
     <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="12"/>
@@ -4140,7 +4152,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
-      <c r="M36" s="37"/>
+      <c r="M36" s="51"/>
     </row>
     <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
@@ -4157,7 +4169,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="11"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="37"/>
+      <c r="M37" s="51"/>
     </row>
     <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
@@ -4174,7 +4186,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="11"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="37"/>
+      <c r="M38" s="51"/>
     </row>
     <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22"/>
@@ -4191,43 +4203,43 @@
       <c r="J39" s="11"/>
       <c r="K39" s="11"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="38"/>
+      <c r="M39" s="52"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="44" t="s">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="31"/>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="46"/>
-      <c r="M40" s="47"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="54"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="32"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="48"/>
-      <c r="M41" s="49"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="40"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18"/>
@@ -4245,25 +4257,25 @@
       <c r="M42" s="20"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="50" t="s">
+      <c r="A43" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="50"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="2"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
-      <c r="F43" s="56" t="s">
+      <c r="F43" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="18"/>
       <c r="J43" s="2"/>
-      <c r="K43" s="51" t="s">
+      <c r="K43" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
@@ -4271,9 +4283,9 @@
       <c r="C44" s="2"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="18"/>
       <c r="J44" s="2"/>
       <c r="K44" s="18"/>
@@ -4288,13 +4300,6 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -4303,6 +4308,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92CC668-7165-42C6-BF9B-D14749EB6154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9117035-0DC9-4834-8801-EFADA205095F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,7 +273,7 @@
     <t>i110</t>
   </si>
   <si>
-    <t>Md Kamrul Islam</t>
+    <t>Md Haider Khan</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,6 +376,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,19 +564,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,31 +594,13 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +632,27 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,12 +671,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,38 +683,52 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3340,10 +3347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:AR123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3364,942 +3371,5144 @@
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="46"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+    </row>
+    <row r="4" spans="1:26" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="24">
+      <c r="B4" s="24"/>
+      <c r="C4" s="14">
         <v>2020</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="33" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="57"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="M4" s="31"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
+      <c r="S5" s="46"/>
+      <c r="T5" s="46"/>
+      <c r="U5" s="46"/>
+      <c r="V5" s="46"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="46"/>
+    </row>
+    <row r="6" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="16">
         <v>780</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="25" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="28">
+      <c r="I6" s="18">
         <v>2770</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="46"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
+    </row>
+    <row r="7" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="16">
         <v>790</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="29" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="18">
         <v>5290</v>
       </c>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="46"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+    </row>
+    <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="16">
         <v>740</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="25" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="18">
         <v>5010</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="46"/>
+      <c r="W8" s="46"/>
+      <c r="X8" s="46"/>
+      <c r="Y8" s="46"/>
+      <c r="Z8" s="46"/>
+    </row>
+    <row r="9" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="16">
         <v>790</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="25" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="I9" s="18"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="46"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="46"/>
+      <c r="W9" s="46"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="46"/>
+      <c r="Z9" s="46"/>
+    </row>
+    <row r="10" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="16">
         <v>800</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="29" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="18">
         <v>5750</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="46"/>
+      <c r="W10" s="46"/>
+      <c r="X10" s="46"/>
+      <c r="Y10" s="46"/>
+      <c r="Z10" s="46"/>
+    </row>
+    <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="16">
         <v>915</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="25" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="18">
         <v>5550</v>
       </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="46"/>
+      <c r="Q11" s="46"/>
+      <c r="R11" s="46"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+    </row>
+    <row r="12" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="16">
         <v>845</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="25" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="28">
+      <c r="I12" s="18">
         <v>5940</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+    </row>
+    <row r="13" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="18">
         <v>820</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="25" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="30">
+      <c r="I13" s="20">
         <v>6030</v>
       </c>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="46"/>
+      <c r="X13" s="46"/>
+      <c r="Y13" s="46"/>
+      <c r="Z13" s="46"/>
+    </row>
+    <row r="14" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="26">
+      <c r="B14" s="16">
         <v>880</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="29" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="20">
         <v>6470</v>
       </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-    </row>
-    <row r="15" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="46"/>
+      <c r="W14" s="46"/>
+      <c r="X14" s="46"/>
+      <c r="Y14" s="46"/>
+      <c r="Z14" s="46"/>
+    </row>
+    <row r="15" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="26">
+      <c r="B15" s="16">
         <v>900</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="29" t="s">
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="18">
         <v>8340</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-    </row>
-    <row r="16" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="46"/>
+      <c r="O15" s="46"/>
+      <c r="P15" s="46"/>
+      <c r="Q15" s="46"/>
+      <c r="R15" s="46"/>
+      <c r="S15" s="46"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="46"/>
+      <c r="W15" s="46"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="46"/>
+      <c r="Z15" s="46"/>
+    </row>
+    <row r="16" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="26">
+      <c r="B16" s="16">
         <v>1040</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="25" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="30">
+      <c r="I16" s="20">
         <v>5750</v>
       </c>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-    </row>
-    <row r="17" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="46"/>
+      <c r="O16" s="46"/>
+      <c r="P16" s="46"/>
+      <c r="Q16" s="46"/>
+      <c r="R16" s="46"/>
+      <c r="S16" s="46"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="46"/>
+    </row>
+    <row r="17" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="16">
         <v>930</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="25" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="I17" s="28">
+      <c r="I17" s="18">
         <v>3610</v>
       </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-    </row>
-    <row r="18" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="P17" s="46"/>
+      <c r="Q17" s="46"/>
+      <c r="R17" s="46"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+    </row>
+    <row r="18" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="16">
         <v>1190</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="29" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="I18" s="28">
+      <c r="I18" s="18">
         <v>3890</v>
       </c>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-    </row>
-    <row r="19" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="46"/>
+    </row>
+    <row r="19" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="16">
         <v>1170</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="25" t="s">
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="18">
         <v>4280</v>
       </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-    </row>
-    <row r="20" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="46"/>
+      <c r="W19" s="46"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="46"/>
+      <c r="Z19" s="46"/>
+    </row>
+    <row r="20" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="29" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="28">
+      <c r="I20" s="18">
         <v>4180</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-    </row>
-    <row r="21" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="46"/>
+      <c r="W20" s="46"/>
+      <c r="X20" s="46"/>
+      <c r="Y20" s="46"/>
+      <c r="Z20" s="46"/>
+    </row>
+    <row r="21" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="27">
+      <c r="B21" s="17">
         <v>1070</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="29" t="s">
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="20">
         <v>3340</v>
       </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-    </row>
-    <row r="22" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="46"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
+      <c r="W21" s="46"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="46"/>
+      <c r="Z21" s="46"/>
+    </row>
+    <row r="22" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="16">
         <v>1100</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="20">
         <v>3620</v>
       </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-    </row>
-    <row r="23" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
+      <c r="W22" s="46"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="46"/>
+      <c r="Z22" s="46"/>
+    </row>
+    <row r="23" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="27">
+      <c r="B23" s="17">
         <v>1160</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="29" t="s">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="28">
+      <c r="I23" s="18">
         <v>3710</v>
       </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-    </row>
-    <row r="24" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
+      <c r="W23" s="46"/>
+      <c r="X23" s="46"/>
+      <c r="Y23" s="46"/>
+      <c r="Z23" s="46"/>
+    </row>
+    <row r="24" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="16">
         <v>1010</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="29" t="s">
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="18">
         <v>7350</v>
       </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-    </row>
-    <row r="25" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
+      <c r="W24" s="46"/>
+      <c r="X24" s="46"/>
+      <c r="Y24" s="46"/>
+      <c r="Z24" s="46"/>
+    </row>
+    <row r="25" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="16">
         <v>970</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="29" t="s">
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="28">
+      <c r="I25" s="18">
         <v>7890</v>
       </c>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-    </row>
-    <row r="26" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
+      <c r="W25" s="46"/>
+      <c r="X25" s="46"/>
+      <c r="Y25" s="46"/>
+      <c r="Z25" s="46"/>
+    </row>
+    <row r="26" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="16">
         <v>1050</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="29" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="18">
         <v>8310</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-    </row>
-    <row r="27" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="46"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="46"/>
+    </row>
+    <row r="27" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="15">
         <v>1190</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="29" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="28">
+      <c r="I27" s="18">
         <v>8310</v>
       </c>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="46"/>
+      <c r="U27" s="46"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="46"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="46"/>
+      <c r="Z27" s="46"/>
+    </row>
+    <row r="28" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="27">
+      <c r="B28" s="17">
         <v>1100</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="53" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="16"/>
-    </row>
-    <row r="29" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="I28" s="29"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="46"/>
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+    </row>
+    <row r="29" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="27">
+      <c r="B29" s="17">
         <v>1250</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="49" t="s">
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="50"/>
-    </row>
-    <row r="30" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="46"/>
+      <c r="P29" s="46"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="46"/>
+      <c r="T29" s="46"/>
+      <c r="U29" s="46"/>
+      <c r="V29" s="46"/>
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+    </row>
+    <row r="30" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="17">
         <v>1370</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="53"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="51"/>
-    </row>
-    <row r="31" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+    </row>
+    <row r="31" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7">
         <v>1000</v>
       </c>
-      <c r="I31" s="14"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="51"/>
-    </row>
-    <row r="32" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="I31" s="10"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="46"/>
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+    </row>
+    <row r="32" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7">
         <v>500</v>
       </c>
-      <c r="I32" s="14"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="51"/>
-    </row>
-    <row r="33" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11">
+      <c r="I32" s="10"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="46"/>
+      <c r="P32" s="46"/>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="46"/>
+      <c r="W32" s="46"/>
+      <c r="X32" s="46"/>
+      <c r="Y32" s="46"/>
+      <c r="Z32" s="46"/>
+    </row>
+    <row r="33" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7">
         <v>100</v>
       </c>
-      <c r="I33" s="14"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="51"/>
-    </row>
-    <row r="34" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11">
+      <c r="I33" s="10"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="46"/>
+      <c r="P33" s="46"/>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="46"/>
+      <c r="W33" s="46"/>
+      <c r="X33" s="46"/>
+      <c r="Y33" s="46"/>
+      <c r="Z33" s="46"/>
+    </row>
+    <row r="34" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7">
         <v>50</v>
       </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="51"/>
-    </row>
-    <row r="35" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11">
+      <c r="I34" s="10"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="46"/>
+      <c r="W34" s="46"/>
+      <c r="X34" s="46"/>
+      <c r="Y34" s="46"/>
+      <c r="Z34" s="46"/>
+    </row>
+    <row r="35" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7">
         <v>20</v>
       </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="51"/>
-    </row>
-    <row r="36" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11">
+      <c r="I35" s="10"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="46"/>
+      <c r="T35" s="46"/>
+      <c r="U35" s="46"/>
+      <c r="V35" s="46"/>
+      <c r="W35" s="46"/>
+      <c r="X35" s="46"/>
+      <c r="Y35" s="46"/>
+      <c r="Z35" s="46"/>
+    </row>
+    <row r="36" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7">
         <v>10</v>
       </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="51"/>
-    </row>
-    <row r="37" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11">
+      <c r="I36" s="10"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+    </row>
+    <row r="37" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7">
         <v>5</v>
       </c>
-      <c r="I37" s="14"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="51"/>
-    </row>
-    <row r="38" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11">
+      <c r="I37" s="10"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+    </row>
+    <row r="38" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7">
         <v>2</v>
       </c>
-      <c r="I38" s="14"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="51"/>
-    </row>
-    <row r="39" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17" t="s">
+      <c r="I38" s="10"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46"/>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+    </row>
+    <row r="39" spans="1:44" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="52"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="43" t="s">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="35" t="s">
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="37" t="s">
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="37"/>
-      <c r="M40" s="38"/>
-    </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
-      <c r="I41" s="36"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="40"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43" s="41" t="s">
+      <c r="L40" s="34"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+    </row>
+    <row r="41" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="53"/>
+      <c r="M42" s="53"/>
+      <c r="N42" s="46"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A43" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="41"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="47" t="s">
+      <c r="B43" s="54"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="42" t="s">
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="47"/>
+      <c r="K43" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="42"/>
-      <c r="M43" s="42"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="47"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N48" s="2"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A44" s="58"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="47"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46"/>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="46"/>
+      <c r="AC45" s="46"/>
+      <c r="AD45" s="46"/>
+      <c r="AE45" s="46"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="46"/>
+      <c r="AH45" s="46"/>
+      <c r="AI45" s="46"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="46"/>
+      <c r="AL45" s="46"/>
+      <c r="AM45" s="46"/>
+      <c r="AN45" s="46"/>
+      <c r="AO45" s="46"/>
+      <c r="AP45" s="46"/>
+      <c r="AQ45" s="46"/>
+      <c r="AR45" s="46"/>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="46"/>
+      <c r="J46" s="46"/>
+      <c r="K46" s="46"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="46"/>
+      <c r="AC46" s="46"/>
+      <c r="AD46" s="46"/>
+      <c r="AE46" s="46"/>
+      <c r="AF46" s="46"/>
+      <c r="AG46" s="46"/>
+      <c r="AH46" s="46"/>
+      <c r="AI46" s="46"/>
+      <c r="AJ46" s="46"/>
+      <c r="AK46" s="46"/>
+      <c r="AL46" s="46"/>
+      <c r="AM46" s="46"/>
+      <c r="AN46" s="46"/>
+      <c r="AO46" s="46"/>
+      <c r="AP46" s="46"/>
+      <c r="AQ46" s="46"/>
+      <c r="AR46" s="46"/>
+    </row>
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="46"/>
+      <c r="J47" s="46"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="46"/>
+      <c r="P47" s="46"/>
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="46"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="46"/>
+      <c r="AA47" s="46"/>
+      <c r="AB47" s="46"/>
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46"/>
+      <c r="AL47" s="46"/>
+      <c r="AM47" s="46"/>
+      <c r="AN47" s="46"/>
+      <c r="AO47" s="46"/>
+      <c r="AP47" s="46"/>
+      <c r="AQ47" s="46"/>
+      <c r="AR47" s="46"/>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="46"/>
+      <c r="J48" s="46"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="46"/>
+      <c r="P48" s="46"/>
+      <c r="Q48" s="46"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="46"/>
+      <c r="T48" s="46"/>
+      <c r="U48" s="46"/>
+      <c r="V48" s="46"/>
+      <c r="W48" s="46"/>
+      <c r="X48" s="46"/>
+      <c r="Y48" s="46"/>
+      <c r="Z48" s="46"/>
+      <c r="AA48" s="46"/>
+      <c r="AB48" s="46"/>
+      <c r="AC48" s="46"/>
+      <c r="AD48" s="46"/>
+      <c r="AE48" s="46"/>
+      <c r="AF48" s="46"/>
+      <c r="AG48" s="46"/>
+      <c r="AH48" s="46"/>
+      <c r="AI48" s="46"/>
+      <c r="AJ48" s="46"/>
+      <c r="AK48" s="46"/>
+      <c r="AL48" s="46"/>
+      <c r="AM48" s="46"/>
+      <c r="AN48" s="46"/>
+      <c r="AO48" s="46"/>
+      <c r="AP48" s="46"/>
+      <c r="AQ48" s="46"/>
+      <c r="AR48" s="46"/>
+    </row>
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="46"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="46"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="46"/>
+      <c r="P49" s="46"/>
+      <c r="Q49" s="46"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="46"/>
+      <c r="T49" s="46"/>
+      <c r="U49" s="46"/>
+      <c r="V49" s="46"/>
+      <c r="W49" s="46"/>
+      <c r="X49" s="46"/>
+      <c r="Y49" s="46"/>
+      <c r="Z49" s="46"/>
+      <c r="AA49" s="46"/>
+      <c r="AB49" s="46"/>
+      <c r="AC49" s="46"/>
+      <c r="AD49" s="46"/>
+      <c r="AE49" s="46"/>
+      <c r="AF49" s="46"/>
+      <c r="AG49" s="46"/>
+      <c r="AH49" s="46"/>
+      <c r="AI49" s="46"/>
+      <c r="AJ49" s="46"/>
+      <c r="AK49" s="46"/>
+      <c r="AL49" s="46"/>
+      <c r="AM49" s="46"/>
+      <c r="AN49" s="46"/>
+      <c r="AO49" s="46"/>
+      <c r="AP49" s="46"/>
+      <c r="AQ49" s="46"/>
+      <c r="AR49" s="46"/>
+    </row>
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="46"/>
+      <c r="K50" s="46"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="46"/>
+      <c r="V50" s="46"/>
+      <c r="W50" s="46"/>
+      <c r="X50" s="46"/>
+      <c r="Y50" s="46"/>
+      <c r="Z50" s="46"/>
+      <c r="AA50" s="46"/>
+      <c r="AB50" s="46"/>
+      <c r="AC50" s="46"/>
+      <c r="AD50" s="46"/>
+      <c r="AE50" s="46"/>
+      <c r="AF50" s="46"/>
+      <c r="AG50" s="46"/>
+      <c r="AH50" s="46"/>
+      <c r="AI50" s="46"/>
+      <c r="AJ50" s="46"/>
+      <c r="AK50" s="46"/>
+      <c r="AL50" s="46"/>
+      <c r="AM50" s="46"/>
+      <c r="AN50" s="46"/>
+      <c r="AO50" s="46"/>
+      <c r="AP50" s="46"/>
+      <c r="AQ50" s="46"/>
+      <c r="AR50" s="46"/>
+    </row>
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="46"/>
+      <c r="I51" s="46"/>
+      <c r="J51" s="46"/>
+      <c r="K51" s="46"/>
+      <c r="L51" s="46"/>
+      <c r="M51" s="46"/>
+      <c r="N51" s="46"/>
+      <c r="O51" s="46"/>
+      <c r="P51" s="46"/>
+      <c r="Q51" s="46"/>
+      <c r="R51" s="46"/>
+      <c r="S51" s="46"/>
+      <c r="T51" s="46"/>
+      <c r="U51" s="46"/>
+      <c r="V51" s="46"/>
+      <c r="W51" s="46"/>
+      <c r="X51" s="46"/>
+      <c r="Y51" s="46"/>
+      <c r="Z51" s="46"/>
+      <c r="AA51" s="46"/>
+      <c r="AB51" s="46"/>
+      <c r="AC51" s="46"/>
+      <c r="AD51" s="46"/>
+      <c r="AE51" s="46"/>
+      <c r="AF51" s="46"/>
+      <c r="AG51" s="46"/>
+      <c r="AH51" s="46"/>
+      <c r="AI51" s="46"/>
+      <c r="AJ51" s="46"/>
+      <c r="AK51" s="46"/>
+      <c r="AL51" s="46"/>
+      <c r="AM51" s="46"/>
+      <c r="AN51" s="46"/>
+      <c r="AO51" s="46"/>
+      <c r="AP51" s="46"/>
+      <c r="AQ51" s="46"/>
+      <c r="AR51" s="46"/>
+    </row>
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="46"/>
+      <c r="Q52" s="46"/>
+      <c r="R52" s="46"/>
+      <c r="S52" s="46"/>
+      <c r="T52" s="46"/>
+      <c r="U52" s="46"/>
+      <c r="V52" s="46"/>
+      <c r="W52" s="46"/>
+      <c r="X52" s="46"/>
+      <c r="Y52" s="46"/>
+      <c r="Z52" s="46"/>
+      <c r="AA52" s="46"/>
+      <c r="AB52" s="46"/>
+      <c r="AC52" s="46"/>
+      <c r="AD52" s="46"/>
+      <c r="AE52" s="46"/>
+      <c r="AF52" s="46"/>
+      <c r="AG52" s="46"/>
+      <c r="AH52" s="46"/>
+      <c r="AI52" s="46"/>
+      <c r="AJ52" s="46"/>
+      <c r="AK52" s="46"/>
+      <c r="AL52" s="46"/>
+      <c r="AM52" s="46"/>
+      <c r="AN52" s="46"/>
+      <c r="AO52" s="46"/>
+      <c r="AP52" s="46"/>
+      <c r="AQ52" s="46"/>
+      <c r="AR52" s="46"/>
+    </row>
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="46"/>
+      <c r="Q53" s="46"/>
+      <c r="R53" s="46"/>
+      <c r="S53" s="46"/>
+      <c r="T53" s="46"/>
+      <c r="U53" s="46"/>
+      <c r="V53" s="46"/>
+      <c r="W53" s="46"/>
+      <c r="X53" s="46"/>
+      <c r="Y53" s="46"/>
+      <c r="Z53" s="46"/>
+      <c r="AA53" s="46"/>
+      <c r="AB53" s="46"/>
+      <c r="AC53" s="46"/>
+      <c r="AD53" s="46"/>
+      <c r="AE53" s="46"/>
+      <c r="AF53" s="46"/>
+      <c r="AG53" s="46"/>
+      <c r="AH53" s="46"/>
+      <c r="AI53" s="46"/>
+      <c r="AJ53" s="46"/>
+      <c r="AK53" s="46"/>
+      <c r="AL53" s="46"/>
+      <c r="AM53" s="46"/>
+      <c r="AN53" s="46"/>
+      <c r="AO53" s="46"/>
+      <c r="AP53" s="46"/>
+      <c r="AQ53" s="46"/>
+      <c r="AR53" s="46"/>
+    </row>
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="46"/>
+      <c r="Q54" s="46"/>
+      <c r="R54" s="46"/>
+      <c r="S54" s="46"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="46"/>
+      <c r="V54" s="46"/>
+      <c r="W54" s="46"/>
+      <c r="X54" s="46"/>
+      <c r="Y54" s="46"/>
+      <c r="Z54" s="46"/>
+      <c r="AA54" s="46"/>
+      <c r="AB54" s="46"/>
+      <c r="AC54" s="46"/>
+      <c r="AD54" s="46"/>
+      <c r="AE54" s="46"/>
+      <c r="AF54" s="46"/>
+      <c r="AG54" s="46"/>
+      <c r="AH54" s="46"/>
+      <c r="AI54" s="46"/>
+      <c r="AJ54" s="46"/>
+      <c r="AK54" s="46"/>
+      <c r="AL54" s="46"/>
+      <c r="AM54" s="46"/>
+      <c r="AN54" s="46"/>
+      <c r="AO54" s="46"/>
+      <c r="AP54" s="46"/>
+      <c r="AQ54" s="46"/>
+      <c r="AR54" s="46"/>
+    </row>
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="46"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="46"/>
+      <c r="Q55" s="46"/>
+      <c r="R55" s="46"/>
+      <c r="S55" s="46"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="46"/>
+      <c r="V55" s="46"/>
+      <c r="W55" s="46"/>
+      <c r="X55" s="46"/>
+      <c r="Y55" s="46"/>
+      <c r="Z55" s="46"/>
+      <c r="AA55" s="46"/>
+      <c r="AB55" s="46"/>
+      <c r="AC55" s="46"/>
+      <c r="AD55" s="46"/>
+      <c r="AE55" s="46"/>
+      <c r="AF55" s="46"/>
+      <c r="AG55" s="46"/>
+      <c r="AH55" s="46"/>
+      <c r="AI55" s="46"/>
+      <c r="AJ55" s="46"/>
+      <c r="AK55" s="46"/>
+      <c r="AL55" s="46"/>
+      <c r="AM55" s="46"/>
+      <c r="AN55" s="46"/>
+      <c r="AO55" s="46"/>
+      <c r="AP55" s="46"/>
+      <c r="AQ55" s="46"/>
+      <c r="AR55" s="46"/>
+    </row>
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="46"/>
+      <c r="Q56" s="46"/>
+      <c r="R56" s="46"/>
+      <c r="S56" s="46"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="46"/>
+      <c r="V56" s="46"/>
+      <c r="W56" s="46"/>
+      <c r="X56" s="46"/>
+      <c r="Y56" s="46"/>
+      <c r="Z56" s="46"/>
+      <c r="AA56" s="46"/>
+      <c r="AB56" s="46"/>
+      <c r="AC56" s="46"/>
+      <c r="AD56" s="46"/>
+      <c r="AE56" s="46"/>
+      <c r="AF56" s="46"/>
+      <c r="AG56" s="46"/>
+      <c r="AH56" s="46"/>
+      <c r="AI56" s="46"/>
+      <c r="AJ56" s="46"/>
+      <c r="AK56" s="46"/>
+      <c r="AL56" s="46"/>
+      <c r="AM56" s="46"/>
+      <c r="AN56" s="46"/>
+      <c r="AO56" s="46"/>
+      <c r="AP56" s="46"/>
+      <c r="AQ56" s="46"/>
+      <c r="AR56" s="46"/>
+    </row>
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="46"/>
+      <c r="Q57" s="46"/>
+      <c r="R57" s="46"/>
+      <c r="S57" s="46"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="46"/>
+      <c r="V57" s="46"/>
+      <c r="W57" s="46"/>
+      <c r="X57" s="46"/>
+      <c r="Y57" s="46"/>
+      <c r="Z57" s="46"/>
+      <c r="AA57" s="46"/>
+      <c r="AB57" s="46"/>
+      <c r="AC57" s="46"/>
+      <c r="AD57" s="46"/>
+      <c r="AE57" s="46"/>
+      <c r="AF57" s="46"/>
+      <c r="AG57" s="46"/>
+      <c r="AH57" s="46"/>
+      <c r="AI57" s="46"/>
+      <c r="AJ57" s="46"/>
+      <c r="AK57" s="46"/>
+      <c r="AL57" s="46"/>
+      <c r="AM57" s="46"/>
+      <c r="AN57" s="46"/>
+      <c r="AO57" s="46"/>
+      <c r="AP57" s="46"/>
+      <c r="AQ57" s="46"/>
+      <c r="AR57" s="46"/>
+    </row>
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="46"/>
+      <c r="Q58" s="46"/>
+      <c r="R58" s="46"/>
+      <c r="S58" s="46"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="46"/>
+      <c r="V58" s="46"/>
+      <c r="W58" s="46"/>
+      <c r="X58" s="46"/>
+      <c r="Y58" s="46"/>
+      <c r="Z58" s="46"/>
+      <c r="AA58" s="46"/>
+      <c r="AB58" s="46"/>
+      <c r="AC58" s="46"/>
+      <c r="AD58" s="46"/>
+      <c r="AE58" s="46"/>
+      <c r="AF58" s="46"/>
+      <c r="AG58" s="46"/>
+      <c r="AH58" s="46"/>
+      <c r="AI58" s="46"/>
+      <c r="AJ58" s="46"/>
+      <c r="AK58" s="46"/>
+      <c r="AL58" s="46"/>
+      <c r="AM58" s="46"/>
+      <c r="AN58" s="46"/>
+      <c r="AO58" s="46"/>
+      <c r="AP58" s="46"/>
+      <c r="AQ58" s="46"/>
+      <c r="AR58" s="46"/>
+    </row>
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="46"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="46"/>
+      <c r="Q59" s="46"/>
+      <c r="R59" s="46"/>
+      <c r="S59" s="46"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="46"/>
+      <c r="V59" s="46"/>
+      <c r="W59" s="46"/>
+      <c r="X59" s="46"/>
+      <c r="Y59" s="46"/>
+      <c r="Z59" s="46"/>
+      <c r="AA59" s="46"/>
+      <c r="AB59" s="46"/>
+      <c r="AC59" s="46"/>
+      <c r="AD59" s="46"/>
+      <c r="AE59" s="46"/>
+      <c r="AF59" s="46"/>
+      <c r="AG59" s="46"/>
+      <c r="AH59" s="46"/>
+      <c r="AI59" s="46"/>
+      <c r="AJ59" s="46"/>
+      <c r="AK59" s="46"/>
+      <c r="AL59" s="46"/>
+      <c r="AM59" s="46"/>
+      <c r="AN59" s="46"/>
+      <c r="AO59" s="46"/>
+      <c r="AP59" s="46"/>
+      <c r="AQ59" s="46"/>
+      <c r="AR59" s="46"/>
+    </row>
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A60" s="46"/>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="46"/>
+      <c r="Q60" s="46"/>
+      <c r="R60" s="46"/>
+      <c r="S60" s="46"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="46"/>
+      <c r="V60" s="46"/>
+      <c r="W60" s="46"/>
+      <c r="X60" s="46"/>
+      <c r="Y60" s="46"/>
+      <c r="Z60" s="46"/>
+      <c r="AA60" s="46"/>
+      <c r="AB60" s="46"/>
+      <c r="AC60" s="46"/>
+      <c r="AD60" s="46"/>
+      <c r="AE60" s="46"/>
+      <c r="AF60" s="46"/>
+      <c r="AG60" s="46"/>
+      <c r="AH60" s="46"/>
+      <c r="AI60" s="46"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="46"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+    </row>
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="46"/>
+      <c r="Q61" s="46"/>
+      <c r="R61" s="46"/>
+      <c r="S61" s="46"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="46"/>
+      <c r="V61" s="46"/>
+      <c r="W61" s="46"/>
+      <c r="X61" s="46"/>
+      <c r="Y61" s="46"/>
+      <c r="Z61" s="46"/>
+      <c r="AA61" s="46"/>
+      <c r="AB61" s="46"/>
+      <c r="AC61" s="46"/>
+      <c r="AD61" s="46"/>
+      <c r="AE61" s="46"/>
+      <c r="AF61" s="46"/>
+      <c r="AG61" s="46"/>
+      <c r="AH61" s="46"/>
+      <c r="AI61" s="46"/>
+      <c r="AJ61" s="46"/>
+      <c r="AK61" s="46"/>
+      <c r="AL61" s="46"/>
+      <c r="AM61" s="46"/>
+      <c r="AN61" s="46"/>
+      <c r="AO61" s="46"/>
+      <c r="AP61" s="46"/>
+      <c r="AQ61" s="46"/>
+      <c r="AR61" s="46"/>
+    </row>
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A62" s="46"/>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="46"/>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="46"/>
+      <c r="Q62" s="46"/>
+      <c r="R62" s="46"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="46"/>
+      <c r="V62" s="46"/>
+      <c r="W62" s="46"/>
+      <c r="X62" s="46"/>
+      <c r="Y62" s="46"/>
+      <c r="Z62" s="46"/>
+      <c r="AA62" s="46"/>
+      <c r="AB62" s="46"/>
+      <c r="AC62" s="46"/>
+      <c r="AD62" s="46"/>
+      <c r="AE62" s="46"/>
+      <c r="AF62" s="46"/>
+      <c r="AG62" s="46"/>
+      <c r="AH62" s="46"/>
+      <c r="AI62" s="46"/>
+      <c r="AJ62" s="46"/>
+      <c r="AK62" s="46"/>
+      <c r="AL62" s="46"/>
+      <c r="AM62" s="46"/>
+      <c r="AN62" s="46"/>
+      <c r="AO62" s="46"/>
+      <c r="AP62" s="46"/>
+      <c r="AQ62" s="46"/>
+      <c r="AR62" s="46"/>
+    </row>
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="46"/>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="46"/>
+      <c r="Q63" s="46"/>
+      <c r="R63" s="46"/>
+      <c r="S63" s="46"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="46"/>
+      <c r="V63" s="46"/>
+      <c r="W63" s="46"/>
+      <c r="X63" s="46"/>
+      <c r="Y63" s="46"/>
+      <c r="Z63" s="46"/>
+      <c r="AA63" s="46"/>
+      <c r="AB63" s="46"/>
+      <c r="AC63" s="46"/>
+      <c r="AD63" s="46"/>
+      <c r="AE63" s="46"/>
+      <c r="AF63" s="46"/>
+      <c r="AG63" s="46"/>
+      <c r="AH63" s="46"/>
+      <c r="AI63" s="46"/>
+      <c r="AJ63" s="46"/>
+      <c r="AK63" s="46"/>
+      <c r="AL63" s="46"/>
+      <c r="AM63" s="46"/>
+      <c r="AN63" s="46"/>
+      <c r="AO63" s="46"/>
+      <c r="AP63" s="46"/>
+      <c r="AQ63" s="46"/>
+      <c r="AR63" s="46"/>
+    </row>
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A64" s="46"/>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="46"/>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="46"/>
+      <c r="Q64" s="46"/>
+      <c r="R64" s="46"/>
+      <c r="S64" s="46"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="46"/>
+      <c r="V64" s="46"/>
+      <c r="W64" s="46"/>
+      <c r="X64" s="46"/>
+      <c r="Y64" s="46"/>
+      <c r="Z64" s="46"/>
+      <c r="AA64" s="46"/>
+      <c r="AB64" s="46"/>
+      <c r="AC64" s="46"/>
+      <c r="AD64" s="46"/>
+      <c r="AE64" s="46"/>
+      <c r="AF64" s="46"/>
+      <c r="AG64" s="46"/>
+      <c r="AH64" s="46"/>
+      <c r="AI64" s="46"/>
+      <c r="AJ64" s="46"/>
+      <c r="AK64" s="46"/>
+      <c r="AL64" s="46"/>
+      <c r="AM64" s="46"/>
+      <c r="AN64" s="46"/>
+      <c r="AO64" s="46"/>
+      <c r="AP64" s="46"/>
+      <c r="AQ64" s="46"/>
+      <c r="AR64" s="46"/>
+    </row>
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A65" s="46"/>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="46"/>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="46"/>
+      <c r="Q65" s="46"/>
+      <c r="R65" s="46"/>
+      <c r="S65" s="46"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="46"/>
+      <c r="V65" s="46"/>
+      <c r="W65" s="46"/>
+      <c r="X65" s="46"/>
+      <c r="Y65" s="46"/>
+      <c r="Z65" s="46"/>
+      <c r="AA65" s="46"/>
+      <c r="AB65" s="46"/>
+      <c r="AC65" s="46"/>
+      <c r="AD65" s="46"/>
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="46"/>
+      <c r="AH65" s="46"/>
+      <c r="AI65" s="46"/>
+      <c r="AJ65" s="46"/>
+      <c r="AK65" s="46"/>
+      <c r="AL65" s="46"/>
+      <c r="AM65" s="46"/>
+      <c r="AN65" s="46"/>
+      <c r="AO65" s="46"/>
+      <c r="AP65" s="46"/>
+      <c r="AQ65" s="46"/>
+      <c r="AR65" s="46"/>
+    </row>
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A66" s="46"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="46"/>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="46"/>
+      <c r="Q66" s="46"/>
+      <c r="R66" s="46"/>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="46"/>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+      <c r="AJ66" s="46"/>
+      <c r="AK66" s="46"/>
+      <c r="AL66" s="46"/>
+      <c r="AM66" s="46"/>
+      <c r="AN66" s="46"/>
+      <c r="AO66" s="46"/>
+      <c r="AP66" s="46"/>
+      <c r="AQ66" s="46"/>
+      <c r="AR66" s="46"/>
+    </row>
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A67" s="46"/>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="46"/>
+      <c r="Q67" s="46"/>
+      <c r="R67" s="46"/>
+      <c r="S67" s="46"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="46"/>
+      <c r="V67" s="46"/>
+      <c r="W67" s="46"/>
+      <c r="X67" s="46"/>
+      <c r="Y67" s="46"/>
+      <c r="Z67" s="46"/>
+      <c r="AA67" s="46"/>
+      <c r="AB67" s="46"/>
+      <c r="AC67" s="46"/>
+      <c r="AD67" s="46"/>
+      <c r="AE67" s="46"/>
+      <c r="AF67" s="46"/>
+      <c r="AG67" s="46"/>
+      <c r="AH67" s="46"/>
+      <c r="AI67" s="46"/>
+      <c r="AJ67" s="46"/>
+      <c r="AK67" s="46"/>
+      <c r="AL67" s="46"/>
+      <c r="AM67" s="46"/>
+      <c r="AN67" s="46"/>
+      <c r="AO67" s="46"/>
+      <c r="AP67" s="46"/>
+      <c r="AQ67" s="46"/>
+      <c r="AR67" s="46"/>
+    </row>
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A68" s="46"/>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="46"/>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="46"/>
+      <c r="J68" s="46"/>
+      <c r="K68" s="46"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="46"/>
+      <c r="P68" s="46"/>
+      <c r="Q68" s="46"/>
+      <c r="R68" s="46"/>
+      <c r="S68" s="46"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="46"/>
+      <c r="V68" s="46"/>
+      <c r="W68" s="46"/>
+      <c r="X68" s="46"/>
+      <c r="Y68" s="46"/>
+      <c r="Z68" s="46"/>
+      <c r="AA68" s="46"/>
+      <c r="AB68" s="46"/>
+      <c r="AC68" s="46"/>
+      <c r="AD68" s="46"/>
+      <c r="AE68" s="46"/>
+      <c r="AF68" s="46"/>
+      <c r="AG68" s="46"/>
+      <c r="AH68" s="46"/>
+      <c r="AI68" s="46"/>
+      <c r="AJ68" s="46"/>
+      <c r="AK68" s="46"/>
+      <c r="AL68" s="46"/>
+      <c r="AM68" s="46"/>
+      <c r="AN68" s="46"/>
+      <c r="AO68" s="46"/>
+      <c r="AP68" s="46"/>
+      <c r="AQ68" s="46"/>
+      <c r="AR68" s="46"/>
+    </row>
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A69" s="46"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="46"/>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="46"/>
+      <c r="J69" s="46"/>
+      <c r="K69" s="46"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="46"/>
+      <c r="P69" s="46"/>
+      <c r="Q69" s="46"/>
+      <c r="R69" s="46"/>
+      <c r="S69" s="46"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="46"/>
+      <c r="V69" s="46"/>
+      <c r="W69" s="46"/>
+      <c r="X69" s="46"/>
+      <c r="Y69" s="46"/>
+      <c r="Z69" s="46"/>
+      <c r="AA69" s="46"/>
+      <c r="AB69" s="46"/>
+      <c r="AC69" s="46"/>
+      <c r="AD69" s="46"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="46"/>
+      <c r="AH69" s="46"/>
+      <c r="AI69" s="46"/>
+      <c r="AJ69" s="46"/>
+      <c r="AK69" s="46"/>
+      <c r="AL69" s="46"/>
+      <c r="AM69" s="46"/>
+      <c r="AN69" s="46"/>
+      <c r="AO69" s="46"/>
+      <c r="AP69" s="46"/>
+      <c r="AQ69" s="46"/>
+      <c r="AR69" s="46"/>
+    </row>
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="46"/>
+      <c r="J70" s="46"/>
+      <c r="K70" s="46"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="46"/>
+      <c r="P70" s="46"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="46"/>
+      <c r="V70" s="46"/>
+      <c r="W70" s="46"/>
+      <c r="X70" s="46"/>
+      <c r="Y70" s="46"/>
+      <c r="Z70" s="46"/>
+      <c r="AA70" s="46"/>
+      <c r="AB70" s="46"/>
+      <c r="AC70" s="46"/>
+      <c r="AD70" s="46"/>
+      <c r="AE70" s="46"/>
+      <c r="AF70" s="46"/>
+      <c r="AG70" s="46"/>
+      <c r="AH70" s="46"/>
+      <c r="AI70" s="46"/>
+      <c r="AJ70" s="46"/>
+      <c r="AK70" s="46"/>
+      <c r="AL70" s="46"/>
+      <c r="AM70" s="46"/>
+      <c r="AN70" s="46"/>
+      <c r="AO70" s="46"/>
+      <c r="AP70" s="46"/>
+      <c r="AQ70" s="46"/>
+      <c r="AR70" s="46"/>
+    </row>
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A71" s="46"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
+      <c r="F71" s="46"/>
+      <c r="G71" s="46"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="46"/>
+      <c r="J71" s="46"/>
+      <c r="K71" s="46"/>
+      <c r="L71" s="46"/>
+      <c r="M71" s="46"/>
+      <c r="N71" s="46"/>
+      <c r="O71" s="46"/>
+      <c r="P71" s="46"/>
+      <c r="Q71" s="46"/>
+      <c r="R71" s="46"/>
+      <c r="S71" s="46"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="46"/>
+      <c r="V71" s="46"/>
+      <c r="W71" s="46"/>
+      <c r="X71" s="46"/>
+      <c r="Y71" s="46"/>
+      <c r="Z71" s="46"/>
+      <c r="AA71" s="46"/>
+      <c r="AB71" s="46"/>
+      <c r="AC71" s="46"/>
+      <c r="AD71" s="46"/>
+      <c r="AE71" s="46"/>
+      <c r="AF71" s="46"/>
+      <c r="AG71" s="46"/>
+      <c r="AH71" s="46"/>
+      <c r="AI71" s="46"/>
+      <c r="AJ71" s="46"/>
+      <c r="AK71" s="46"/>
+      <c r="AL71" s="46"/>
+      <c r="AM71" s="46"/>
+      <c r="AN71" s="46"/>
+      <c r="AO71" s="46"/>
+      <c r="AP71" s="46"/>
+      <c r="AQ71" s="46"/>
+      <c r="AR71" s="46"/>
+    </row>
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A72" s="46"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="46"/>
+      <c r="G72" s="46"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="46"/>
+      <c r="J72" s="46"/>
+      <c r="K72" s="46"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="46"/>
+      <c r="P72" s="46"/>
+      <c r="Q72" s="46"/>
+      <c r="R72" s="46"/>
+      <c r="S72" s="46"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="46"/>
+      <c r="V72" s="46"/>
+      <c r="W72" s="46"/>
+      <c r="X72" s="46"/>
+      <c r="Y72" s="46"/>
+      <c r="Z72" s="46"/>
+      <c r="AA72" s="46"/>
+      <c r="AB72" s="46"/>
+      <c r="AC72" s="46"/>
+      <c r="AD72" s="46"/>
+      <c r="AE72" s="46"/>
+      <c r="AF72" s="46"/>
+      <c r="AG72" s="46"/>
+      <c r="AH72" s="46"/>
+      <c r="AI72" s="46"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="46"/>
+      <c r="AL72" s="46"/>
+      <c r="AM72" s="46"/>
+      <c r="AN72" s="46"/>
+      <c r="AO72" s="46"/>
+      <c r="AP72" s="46"/>
+      <c r="AQ72" s="46"/>
+      <c r="AR72" s="46"/>
+    </row>
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="46"/>
+      <c r="J73" s="46"/>
+      <c r="K73" s="46"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="46"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="46"/>
+      <c r="P73" s="46"/>
+      <c r="Q73" s="46"/>
+      <c r="R73" s="46"/>
+      <c r="S73" s="46"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="46"/>
+      <c r="V73" s="46"/>
+      <c r="W73" s="46"/>
+      <c r="X73" s="46"/>
+      <c r="Y73" s="46"/>
+      <c r="Z73" s="46"/>
+      <c r="AA73" s="46"/>
+      <c r="AB73" s="46"/>
+      <c r="AC73" s="46"/>
+      <c r="AD73" s="46"/>
+      <c r="AE73" s="46"/>
+      <c r="AF73" s="46"/>
+      <c r="AG73" s="46"/>
+      <c r="AH73" s="46"/>
+      <c r="AI73" s="46"/>
+      <c r="AJ73" s="46"/>
+      <c r="AK73" s="46"/>
+      <c r="AL73" s="46"/>
+      <c r="AM73" s="46"/>
+      <c r="AN73" s="46"/>
+      <c r="AO73" s="46"/>
+      <c r="AP73" s="46"/>
+      <c r="AQ73" s="46"/>
+      <c r="AR73" s="46"/>
+    </row>
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="46"/>
+      <c r="F74" s="46"/>
+      <c r="G74" s="46"/>
+      <c r="H74" s="46"/>
+      <c r="I74" s="46"/>
+      <c r="J74" s="46"/>
+      <c r="K74" s="46"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="46"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="46"/>
+      <c r="P74" s="46"/>
+      <c r="Q74" s="46"/>
+      <c r="R74" s="46"/>
+      <c r="S74" s="46"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="46"/>
+      <c r="V74" s="46"/>
+      <c r="W74" s="46"/>
+      <c r="X74" s="46"/>
+      <c r="Y74" s="46"/>
+      <c r="Z74" s="46"/>
+      <c r="AA74" s="46"/>
+      <c r="AB74" s="46"/>
+      <c r="AC74" s="46"/>
+      <c r="AD74" s="46"/>
+      <c r="AE74" s="46"/>
+      <c r="AF74" s="46"/>
+      <c r="AG74" s="46"/>
+      <c r="AH74" s="46"/>
+      <c r="AI74" s="46"/>
+      <c r="AJ74" s="46"/>
+      <c r="AK74" s="46"/>
+      <c r="AL74" s="46"/>
+      <c r="AM74" s="46"/>
+      <c r="AN74" s="46"/>
+      <c r="AO74" s="46"/>
+      <c r="AP74" s="46"/>
+      <c r="AQ74" s="46"/>
+      <c r="AR74" s="46"/>
+    </row>
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
+      <c r="K75" s="46"/>
+      <c r="L75" s="46"/>
+      <c r="M75" s="46"/>
+      <c r="N75" s="46"/>
+      <c r="O75" s="46"/>
+      <c r="P75" s="46"/>
+      <c r="Q75" s="46"/>
+      <c r="R75" s="46"/>
+      <c r="S75" s="46"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="46"/>
+      <c r="V75" s="46"/>
+      <c r="W75" s="46"/>
+      <c r="X75" s="46"/>
+      <c r="Y75" s="46"/>
+      <c r="Z75" s="46"/>
+      <c r="AA75" s="46"/>
+      <c r="AB75" s="46"/>
+      <c r="AC75" s="46"/>
+      <c r="AD75" s="46"/>
+      <c r="AE75" s="46"/>
+      <c r="AF75" s="46"/>
+      <c r="AG75" s="46"/>
+      <c r="AH75" s="46"/>
+      <c r="AI75" s="46"/>
+      <c r="AJ75" s="46"/>
+      <c r="AK75" s="46"/>
+      <c r="AL75" s="46"/>
+      <c r="AM75" s="46"/>
+      <c r="AN75" s="46"/>
+      <c r="AO75" s="46"/>
+      <c r="AP75" s="46"/>
+      <c r="AQ75" s="46"/>
+      <c r="AR75" s="46"/>
+    </row>
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
+      <c r="K76" s="46"/>
+      <c r="L76" s="46"/>
+      <c r="M76" s="46"/>
+      <c r="N76" s="46"/>
+      <c r="O76" s="46"/>
+      <c r="P76" s="46"/>
+      <c r="Q76" s="46"/>
+      <c r="R76" s="46"/>
+      <c r="S76" s="46"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="46"/>
+      <c r="V76" s="46"/>
+      <c r="W76" s="46"/>
+      <c r="X76" s="46"/>
+      <c r="Y76" s="46"/>
+      <c r="Z76" s="46"/>
+      <c r="AA76" s="46"/>
+      <c r="AB76" s="46"/>
+      <c r="AC76" s="46"/>
+      <c r="AD76" s="46"/>
+      <c r="AE76" s="46"/>
+      <c r="AF76" s="46"/>
+      <c r="AG76" s="46"/>
+      <c r="AH76" s="46"/>
+      <c r="AI76" s="46"/>
+      <c r="AJ76" s="46"/>
+      <c r="AK76" s="46"/>
+      <c r="AL76" s="46"/>
+      <c r="AM76" s="46"/>
+      <c r="AN76" s="46"/>
+      <c r="AO76" s="46"/>
+      <c r="AP76" s="46"/>
+      <c r="AQ76" s="46"/>
+      <c r="AR76" s="46"/>
+    </row>
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
+      <c r="K77" s="46"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="46"/>
+      <c r="P77" s="46"/>
+      <c r="Q77" s="46"/>
+      <c r="R77" s="46"/>
+      <c r="S77" s="46"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="46"/>
+      <c r="V77" s="46"/>
+      <c r="W77" s="46"/>
+      <c r="X77" s="46"/>
+      <c r="Y77" s="46"/>
+      <c r="Z77" s="46"/>
+      <c r="AA77" s="46"/>
+      <c r="AB77" s="46"/>
+      <c r="AC77" s="46"/>
+      <c r="AD77" s="46"/>
+      <c r="AE77" s="46"/>
+      <c r="AF77" s="46"/>
+      <c r="AG77" s="46"/>
+      <c r="AH77" s="46"/>
+      <c r="AI77" s="46"/>
+      <c r="AJ77" s="46"/>
+      <c r="AK77" s="46"/>
+      <c r="AL77" s="46"/>
+      <c r="AM77" s="46"/>
+      <c r="AN77" s="46"/>
+      <c r="AO77" s="46"/>
+      <c r="AP77" s="46"/>
+      <c r="AQ77" s="46"/>
+      <c r="AR77" s="46"/>
+    </row>
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
+      <c r="K78" s="46"/>
+      <c r="L78" s="46"/>
+      <c r="M78" s="46"/>
+      <c r="N78" s="46"/>
+      <c r="O78" s="46"/>
+      <c r="P78" s="46"/>
+      <c r="Q78" s="46"/>
+      <c r="R78" s="46"/>
+      <c r="S78" s="46"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="46"/>
+      <c r="V78" s="46"/>
+      <c r="W78" s="46"/>
+      <c r="X78" s="46"/>
+      <c r="Y78" s="46"/>
+      <c r="Z78" s="46"/>
+      <c r="AA78" s="46"/>
+      <c r="AB78" s="46"/>
+      <c r="AC78" s="46"/>
+      <c r="AD78" s="46"/>
+      <c r="AE78" s="46"/>
+      <c r="AF78" s="46"/>
+      <c r="AG78" s="46"/>
+      <c r="AH78" s="46"/>
+      <c r="AI78" s="46"/>
+      <c r="AJ78" s="46"/>
+      <c r="AK78" s="46"/>
+      <c r="AL78" s="46"/>
+      <c r="AM78" s="46"/>
+      <c r="AN78" s="46"/>
+      <c r="AO78" s="46"/>
+      <c r="AP78" s="46"/>
+      <c r="AQ78" s="46"/>
+      <c r="AR78" s="46"/>
+    </row>
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
+      <c r="K79" s="46"/>
+      <c r="L79" s="46"/>
+      <c r="M79" s="46"/>
+      <c r="N79" s="46"/>
+      <c r="O79" s="46"/>
+      <c r="P79" s="46"/>
+      <c r="Q79" s="46"/>
+      <c r="R79" s="46"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="46"/>
+      <c r="V79" s="46"/>
+      <c r="W79" s="46"/>
+      <c r="X79" s="46"/>
+      <c r="Y79" s="46"/>
+      <c r="Z79" s="46"/>
+      <c r="AA79" s="46"/>
+      <c r="AB79" s="46"/>
+      <c r="AC79" s="46"/>
+      <c r="AD79" s="46"/>
+      <c r="AE79" s="46"/>
+      <c r="AF79" s="46"/>
+      <c r="AG79" s="46"/>
+      <c r="AH79" s="46"/>
+      <c r="AI79" s="46"/>
+      <c r="AJ79" s="46"/>
+      <c r="AK79" s="46"/>
+      <c r="AL79" s="46"/>
+      <c r="AM79" s="46"/>
+      <c r="AN79" s="46"/>
+      <c r="AO79" s="46"/>
+      <c r="AP79" s="46"/>
+      <c r="AQ79" s="46"/>
+      <c r="AR79" s="46"/>
+    </row>
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A80" s="46"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="46"/>
+      <c r="F80" s="46"/>
+      <c r="G80" s="46"/>
+      <c r="H80" s="46"/>
+      <c r="I80" s="46"/>
+      <c r="J80" s="46"/>
+      <c r="K80" s="46"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="46"/>
+      <c r="O80" s="46"/>
+      <c r="P80" s="46"/>
+      <c r="Q80" s="46"/>
+      <c r="R80" s="46"/>
+      <c r="S80" s="46"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="46"/>
+      <c r="V80" s="46"/>
+      <c r="W80" s="46"/>
+      <c r="X80" s="46"/>
+      <c r="Y80" s="46"/>
+      <c r="Z80" s="46"/>
+      <c r="AA80" s="46"/>
+      <c r="AB80" s="46"/>
+      <c r="AC80" s="46"/>
+      <c r="AD80" s="46"/>
+      <c r="AE80" s="46"/>
+      <c r="AF80" s="46"/>
+      <c r="AG80" s="46"/>
+      <c r="AH80" s="46"/>
+      <c r="AI80" s="46"/>
+      <c r="AJ80" s="46"/>
+      <c r="AK80" s="46"/>
+      <c r="AL80" s="46"/>
+      <c r="AM80" s="46"/>
+      <c r="AN80" s="46"/>
+      <c r="AO80" s="46"/>
+      <c r="AP80" s="46"/>
+      <c r="AQ80" s="46"/>
+      <c r="AR80" s="46"/>
+    </row>
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A81" s="46"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" s="46"/>
+      <c r="H81" s="46"/>
+      <c r="I81" s="46"/>
+      <c r="J81" s="46"/>
+      <c r="K81" s="46"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="46"/>
+      <c r="P81" s="46"/>
+      <c r="Q81" s="46"/>
+      <c r="R81" s="46"/>
+      <c r="S81" s="46"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="46"/>
+      <c r="V81" s="46"/>
+      <c r="W81" s="46"/>
+      <c r="X81" s="46"/>
+      <c r="Y81" s="46"/>
+      <c r="Z81" s="46"/>
+      <c r="AA81" s="46"/>
+      <c r="AB81" s="46"/>
+      <c r="AC81" s="46"/>
+      <c r="AD81" s="46"/>
+      <c r="AE81" s="46"/>
+      <c r="AF81" s="46"/>
+      <c r="AG81" s="46"/>
+      <c r="AH81" s="46"/>
+      <c r="AI81" s="46"/>
+      <c r="AJ81" s="46"/>
+      <c r="AK81" s="46"/>
+      <c r="AL81" s="46"/>
+      <c r="AM81" s="46"/>
+      <c r="AN81" s="46"/>
+      <c r="AO81" s="46"/>
+      <c r="AP81" s="46"/>
+      <c r="AQ81" s="46"/>
+      <c r="AR81" s="46"/>
+    </row>
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A82" s="46"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="46"/>
+      <c r="E82" s="46"/>
+      <c r="F82" s="46"/>
+      <c r="G82" s="46"/>
+      <c r="H82" s="46"/>
+      <c r="I82" s="46"/>
+      <c r="J82" s="46"/>
+      <c r="K82" s="46"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="46"/>
+      <c r="P82" s="46"/>
+      <c r="Q82" s="46"/>
+      <c r="R82" s="46"/>
+      <c r="S82" s="46"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="46"/>
+      <c r="V82" s="46"/>
+      <c r="W82" s="46"/>
+      <c r="X82" s="46"/>
+      <c r="Y82" s="46"/>
+      <c r="Z82" s="46"/>
+      <c r="AA82" s="46"/>
+      <c r="AB82" s="46"/>
+      <c r="AC82" s="46"/>
+      <c r="AD82" s="46"/>
+      <c r="AE82" s="46"/>
+      <c r="AF82" s="46"/>
+      <c r="AG82" s="46"/>
+      <c r="AH82" s="46"/>
+      <c r="AI82" s="46"/>
+      <c r="AJ82" s="46"/>
+      <c r="AK82" s="46"/>
+      <c r="AL82" s="46"/>
+      <c r="AM82" s="46"/>
+      <c r="AN82" s="46"/>
+      <c r="AO82" s="46"/>
+      <c r="AP82" s="46"/>
+      <c r="AQ82" s="46"/>
+      <c r="AR82" s="46"/>
+    </row>
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A83" s="46"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
+      <c r="E83" s="46"/>
+      <c r="F83" s="46"/>
+      <c r="G83" s="46"/>
+      <c r="H83" s="46"/>
+      <c r="I83" s="46"/>
+      <c r="J83" s="46"/>
+      <c r="K83" s="46"/>
+      <c r="L83" s="46"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="46"/>
+      <c r="O83" s="46"/>
+      <c r="P83" s="46"/>
+      <c r="Q83" s="46"/>
+      <c r="R83" s="46"/>
+      <c r="S83" s="46"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="46"/>
+      <c r="V83" s="46"/>
+      <c r="W83" s="46"/>
+      <c r="X83" s="46"/>
+      <c r="Y83" s="46"/>
+      <c r="Z83" s="46"/>
+      <c r="AA83" s="46"/>
+      <c r="AB83" s="46"/>
+      <c r="AC83" s="46"/>
+      <c r="AD83" s="46"/>
+      <c r="AE83" s="46"/>
+      <c r="AF83" s="46"/>
+      <c r="AG83" s="46"/>
+      <c r="AH83" s="46"/>
+      <c r="AI83" s="46"/>
+      <c r="AJ83" s="46"/>
+      <c r="AK83" s="46"/>
+      <c r="AL83" s="46"/>
+      <c r="AM83" s="46"/>
+      <c r="AN83" s="46"/>
+      <c r="AO83" s="46"/>
+      <c r="AP83" s="46"/>
+      <c r="AQ83" s="46"/>
+      <c r="AR83" s="46"/>
+    </row>
+    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A84" s="46"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="46"/>
+      <c r="E84" s="46"/>
+      <c r="F84" s="46"/>
+      <c r="G84" s="46"/>
+      <c r="H84" s="46"/>
+      <c r="I84" s="46"/>
+      <c r="J84" s="46"/>
+      <c r="K84" s="46"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="46"/>
+      <c r="O84" s="46"/>
+      <c r="P84" s="46"/>
+      <c r="Q84" s="46"/>
+      <c r="R84" s="46"/>
+      <c r="S84" s="46"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="46"/>
+      <c r="V84" s="46"/>
+      <c r="W84" s="46"/>
+      <c r="X84" s="46"/>
+      <c r="Y84" s="46"/>
+      <c r="Z84" s="46"/>
+      <c r="AA84" s="46"/>
+      <c r="AB84" s="46"/>
+      <c r="AC84" s="46"/>
+      <c r="AD84" s="46"/>
+      <c r="AE84" s="46"/>
+      <c r="AF84" s="46"/>
+      <c r="AG84" s="46"/>
+      <c r="AH84" s="46"/>
+      <c r="AI84" s="46"/>
+      <c r="AJ84" s="46"/>
+      <c r="AK84" s="46"/>
+      <c r="AL84" s="46"/>
+      <c r="AM84" s="46"/>
+      <c r="AN84" s="46"/>
+      <c r="AO84" s="46"/>
+      <c r="AP84" s="46"/>
+      <c r="AQ84" s="46"/>
+      <c r="AR84" s="46"/>
+    </row>
+    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A85" s="46"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="46"/>
+      <c r="E85" s="46"/>
+      <c r="F85" s="46"/>
+      <c r="G85" s="46"/>
+      <c r="H85" s="46"/>
+      <c r="I85" s="46"/>
+      <c r="J85" s="46"/>
+      <c r="K85" s="46"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="46"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="46"/>
+      <c r="P85" s="46"/>
+      <c r="Q85" s="46"/>
+      <c r="R85" s="46"/>
+      <c r="S85" s="46"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="46"/>
+      <c r="V85" s="46"/>
+      <c r="W85" s="46"/>
+      <c r="X85" s="46"/>
+      <c r="Y85" s="46"/>
+      <c r="Z85" s="46"/>
+      <c r="AA85" s="46"/>
+      <c r="AB85" s="46"/>
+      <c r="AC85" s="46"/>
+      <c r="AD85" s="46"/>
+      <c r="AE85" s="46"/>
+      <c r="AF85" s="46"/>
+      <c r="AG85" s="46"/>
+      <c r="AH85" s="46"/>
+      <c r="AI85" s="46"/>
+      <c r="AJ85" s="46"/>
+      <c r="AK85" s="46"/>
+      <c r="AL85" s="46"/>
+      <c r="AM85" s="46"/>
+      <c r="AN85" s="46"/>
+      <c r="AO85" s="46"/>
+      <c r="AP85" s="46"/>
+      <c r="AQ85" s="46"/>
+      <c r="AR85" s="46"/>
+    </row>
+    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A86" s="46"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="46"/>
+      <c r="E86" s="46"/>
+      <c r="F86" s="46"/>
+      <c r="G86" s="46"/>
+      <c r="H86" s="46"/>
+      <c r="I86" s="46"/>
+      <c r="J86" s="46"/>
+      <c r="K86" s="46"/>
+      <c r="L86" s="46"/>
+      <c r="M86" s="46"/>
+      <c r="N86" s="46"/>
+      <c r="O86" s="46"/>
+      <c r="P86" s="46"/>
+      <c r="Q86" s="46"/>
+      <c r="R86" s="46"/>
+      <c r="S86" s="46"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="46"/>
+      <c r="V86" s="46"/>
+      <c r="W86" s="46"/>
+      <c r="X86" s="46"/>
+      <c r="Y86" s="46"/>
+      <c r="Z86" s="46"/>
+      <c r="AA86" s="46"/>
+      <c r="AB86" s="46"/>
+      <c r="AC86" s="46"/>
+      <c r="AD86" s="46"/>
+      <c r="AE86" s="46"/>
+      <c r="AF86" s="46"/>
+      <c r="AG86" s="46"/>
+      <c r="AH86" s="46"/>
+      <c r="AI86" s="46"/>
+      <c r="AJ86" s="46"/>
+      <c r="AK86" s="46"/>
+      <c r="AL86" s="46"/>
+      <c r="AM86" s="46"/>
+      <c r="AN86" s="46"/>
+      <c r="AO86" s="46"/>
+      <c r="AP86" s="46"/>
+      <c r="AQ86" s="46"/>
+      <c r="AR86" s="46"/>
+    </row>
+    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A87" s="46"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="46"/>
+      <c r="E87" s="46"/>
+      <c r="F87" s="46"/>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46"/>
+      <c r="J87" s="46"/>
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="46"/>
+      <c r="Q87" s="46"/>
+      <c r="R87" s="46"/>
+      <c r="S87" s="46"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="46"/>
+      <c r="V87" s="46"/>
+      <c r="W87" s="46"/>
+      <c r="X87" s="46"/>
+      <c r="Y87" s="46"/>
+      <c r="Z87" s="46"/>
+      <c r="AA87" s="46"/>
+      <c r="AB87" s="46"/>
+      <c r="AC87" s="46"/>
+      <c r="AD87" s="46"/>
+      <c r="AE87" s="46"/>
+      <c r="AF87" s="46"/>
+      <c r="AG87" s="46"/>
+      <c r="AH87" s="46"/>
+      <c r="AI87" s="46"/>
+      <c r="AJ87" s="46"/>
+      <c r="AK87" s="46"/>
+      <c r="AL87" s="46"/>
+      <c r="AM87" s="46"/>
+      <c r="AN87" s="46"/>
+      <c r="AO87" s="46"/>
+      <c r="AP87" s="46"/>
+      <c r="AQ87" s="46"/>
+      <c r="AR87" s="46"/>
+    </row>
+    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A88" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
+      <c r="E88" s="46"/>
+      <c r="F88" s="46"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46"/>
+      <c r="J88" s="46"/>
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="46"/>
+      <c r="Q88" s="46"/>
+      <c r="R88" s="46"/>
+      <c r="S88" s="46"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="46"/>
+      <c r="V88" s="46"/>
+      <c r="W88" s="46"/>
+      <c r="X88" s="46"/>
+      <c r="Y88" s="46"/>
+      <c r="Z88" s="46"/>
+      <c r="AA88" s="46"/>
+      <c r="AB88" s="46"/>
+      <c r="AC88" s="46"/>
+      <c r="AD88" s="46"/>
+      <c r="AE88" s="46"/>
+      <c r="AF88" s="46"/>
+      <c r="AG88" s="46"/>
+      <c r="AH88" s="46"/>
+      <c r="AI88" s="46"/>
+      <c r="AJ88" s="46"/>
+      <c r="AK88" s="46"/>
+      <c r="AL88" s="46"/>
+      <c r="AM88" s="46"/>
+      <c r="AN88" s="46"/>
+      <c r="AO88" s="46"/>
+      <c r="AP88" s="46"/>
+      <c r="AQ88" s="46"/>
+      <c r="AR88" s="46"/>
+    </row>
+    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A89" s="46"/>
+      <c r="B89" s="46"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="46"/>
+      <c r="E89" s="46"/>
+      <c r="F89" s="46"/>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46"/>
+      <c r="J89" s="46"/>
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="46"/>
+      <c r="Q89" s="46"/>
+      <c r="R89" s="46"/>
+      <c r="S89" s="46"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="46"/>
+      <c r="V89" s="46"/>
+      <c r="W89" s="46"/>
+      <c r="X89" s="46"/>
+      <c r="Y89" s="46"/>
+      <c r="Z89" s="46"/>
+      <c r="AA89" s="46"/>
+      <c r="AB89" s="46"/>
+      <c r="AC89" s="46"/>
+      <c r="AD89" s="46"/>
+      <c r="AE89" s="46"/>
+      <c r="AF89" s="46"/>
+      <c r="AG89" s="46"/>
+      <c r="AH89" s="46"/>
+      <c r="AI89" s="46"/>
+      <c r="AJ89" s="46"/>
+      <c r="AK89" s="46"/>
+      <c r="AL89" s="46"/>
+      <c r="AM89" s="46"/>
+      <c r="AN89" s="46"/>
+      <c r="AO89" s="46"/>
+      <c r="AP89" s="46"/>
+      <c r="AQ89" s="46"/>
+      <c r="AR89" s="46"/>
+    </row>
+    <row r="90" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A90" s="46"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="46"/>
+      <c r="E90" s="46"/>
+      <c r="F90" s="46"/>
+      <c r="G90" s="46"/>
+      <c r="H90" s="46"/>
+      <c r="I90" s="46"/>
+      <c r="J90" s="46"/>
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="46"/>
+      <c r="Q90" s="46"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="46"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="46"/>
+      <c r="AE90" s="46"/>
+      <c r="AF90" s="46"/>
+      <c r="AG90" s="46"/>
+      <c r="AH90" s="46"/>
+      <c r="AI90" s="46"/>
+      <c r="AJ90" s="46"/>
+      <c r="AK90" s="46"/>
+      <c r="AL90" s="46"/>
+      <c r="AM90" s="46"/>
+      <c r="AN90" s="46"/>
+      <c r="AO90" s="46"/>
+      <c r="AP90" s="46"/>
+      <c r="AQ90" s="46"/>
+      <c r="AR90" s="46"/>
+    </row>
+    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="46"/>
+      <c r="E91" s="46"/>
+      <c r="F91" s="46"/>
+      <c r="G91" s="46"/>
+      <c r="H91" s="46"/>
+      <c r="I91" s="46"/>
+      <c r="J91" s="46"/>
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="46"/>
+      <c r="Q91" s="46"/>
+      <c r="R91" s="46"/>
+      <c r="S91" s="46"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="46"/>
+      <c r="V91" s="46"/>
+      <c r="W91" s="46"/>
+      <c r="X91" s="46"/>
+      <c r="Y91" s="46"/>
+      <c r="Z91" s="46"/>
+      <c r="AA91" s="46"/>
+      <c r="AB91" s="46"/>
+      <c r="AC91" s="46"/>
+      <c r="AD91" s="46"/>
+      <c r="AE91" s="46"/>
+      <c r="AF91" s="46"/>
+      <c r="AG91" s="46"/>
+      <c r="AH91" s="46"/>
+      <c r="AI91" s="46"/>
+      <c r="AJ91" s="46"/>
+      <c r="AK91" s="46"/>
+      <c r="AL91" s="46"/>
+      <c r="AM91" s="46"/>
+      <c r="AN91" s="46"/>
+      <c r="AO91" s="46"/>
+      <c r="AP91" s="46"/>
+      <c r="AQ91" s="46"/>
+      <c r="AR91" s="46"/>
+    </row>
+    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A92" s="46"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="46"/>
+      <c r="E92" s="46"/>
+      <c r="F92" s="46"/>
+      <c r="G92" s="46"/>
+      <c r="H92" s="46"/>
+      <c r="I92" s="46"/>
+      <c r="J92" s="46"/>
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="46"/>
+      <c r="Q92" s="46"/>
+      <c r="R92" s="46"/>
+      <c r="S92" s="46"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="46"/>
+      <c r="V92" s="46"/>
+      <c r="W92" s="46"/>
+      <c r="X92" s="46"/>
+      <c r="Y92" s="46"/>
+      <c r="Z92" s="46"/>
+      <c r="AA92" s="46"/>
+      <c r="AB92" s="46"/>
+      <c r="AC92" s="46"/>
+      <c r="AD92" s="46"/>
+      <c r="AE92" s="46"/>
+      <c r="AF92" s="46"/>
+      <c r="AG92" s="46"/>
+      <c r="AH92" s="46"/>
+      <c r="AI92" s="46"/>
+      <c r="AJ92" s="46"/>
+      <c r="AK92" s="46"/>
+      <c r="AL92" s="46"/>
+      <c r="AM92" s="46"/>
+      <c r="AN92" s="46"/>
+      <c r="AO92" s="46"/>
+      <c r="AP92" s="46"/>
+      <c r="AQ92" s="46"/>
+      <c r="AR92" s="46"/>
+    </row>
+    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A93" s="46"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="46"/>
+      <c r="I93" s="46"/>
+      <c r="J93" s="46"/>
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="46"/>
+      <c r="Q93" s="46"/>
+      <c r="R93" s="46"/>
+      <c r="S93" s="46"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="46"/>
+      <c r="V93" s="46"/>
+      <c r="W93" s="46"/>
+      <c r="X93" s="46"/>
+      <c r="Y93" s="46"/>
+      <c r="Z93" s="46"/>
+      <c r="AA93" s="46"/>
+      <c r="AB93" s="46"/>
+      <c r="AC93" s="46"/>
+      <c r="AD93" s="46"/>
+      <c r="AE93" s="46"/>
+      <c r="AF93" s="46"/>
+      <c r="AG93" s="46"/>
+      <c r="AH93" s="46"/>
+      <c r="AI93" s="46"/>
+      <c r="AJ93" s="46"/>
+      <c r="AK93" s="46"/>
+      <c r="AL93" s="46"/>
+      <c r="AM93" s="46"/>
+      <c r="AN93" s="46"/>
+      <c r="AO93" s="46"/>
+      <c r="AP93" s="46"/>
+      <c r="AQ93" s="46"/>
+      <c r="AR93" s="46"/>
+    </row>
+    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A94" s="46"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="46"/>
+      <c r="I94" s="46"/>
+      <c r="J94" s="46"/>
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="46"/>
+      <c r="Q94" s="46"/>
+      <c r="R94" s="46"/>
+      <c r="S94" s="46"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="46"/>
+      <c r="V94" s="46"/>
+      <c r="W94" s="46"/>
+      <c r="X94" s="46"/>
+      <c r="Y94" s="46"/>
+      <c r="Z94" s="46"/>
+      <c r="AA94" s="46"/>
+      <c r="AB94" s="46"/>
+      <c r="AC94" s="46"/>
+      <c r="AD94" s="46"/>
+      <c r="AE94" s="46"/>
+      <c r="AF94" s="46"/>
+      <c r="AG94" s="46"/>
+      <c r="AH94" s="46"/>
+      <c r="AI94" s="46"/>
+      <c r="AJ94" s="46"/>
+      <c r="AK94" s="46"/>
+      <c r="AL94" s="46"/>
+      <c r="AM94" s="46"/>
+      <c r="AN94" s="46"/>
+      <c r="AO94" s="46"/>
+      <c r="AP94" s="46"/>
+      <c r="AQ94" s="46"/>
+      <c r="AR94" s="46"/>
+    </row>
+    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A95" s="46"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="46"/>
+      <c r="I95" s="46"/>
+      <c r="J95" s="46"/>
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="46"/>
+      <c r="N95" s="46"/>
+      <c r="O95" s="46"/>
+      <c r="P95" s="46"/>
+      <c r="Q95" s="46"/>
+      <c r="R95" s="46"/>
+      <c r="S95" s="46"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="46"/>
+      <c r="V95" s="46"/>
+      <c r="W95" s="46"/>
+      <c r="X95" s="46"/>
+      <c r="Y95" s="46"/>
+      <c r="Z95" s="46"/>
+      <c r="AA95" s="46"/>
+      <c r="AB95" s="46"/>
+      <c r="AC95" s="46"/>
+      <c r="AD95" s="46"/>
+      <c r="AE95" s="46"/>
+      <c r="AF95" s="46"/>
+      <c r="AG95" s="46"/>
+      <c r="AH95" s="46"/>
+      <c r="AI95" s="46"/>
+      <c r="AJ95" s="46"/>
+      <c r="AK95" s="46"/>
+      <c r="AL95" s="46"/>
+      <c r="AM95" s="46"/>
+      <c r="AN95" s="46"/>
+      <c r="AO95" s="46"/>
+      <c r="AP95" s="46"/>
+      <c r="AQ95" s="46"/>
+      <c r="AR95" s="46"/>
+    </row>
+    <row r="96" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A96" s="46"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="46"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46"/>
+      <c r="G96" s="46"/>
+      <c r="H96" s="46"/>
+      <c r="I96" s="46"/>
+      <c r="J96" s="46"/>
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="46"/>
+      <c r="N96" s="46"/>
+      <c r="O96" s="46"/>
+      <c r="P96" s="46"/>
+      <c r="Q96" s="46"/>
+      <c r="R96" s="46"/>
+      <c r="S96" s="46"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="46"/>
+      <c r="V96" s="46"/>
+      <c r="W96" s="46"/>
+      <c r="X96" s="46"/>
+      <c r="Y96" s="46"/>
+      <c r="Z96" s="46"/>
+      <c r="AA96" s="46"/>
+      <c r="AB96" s="46"/>
+      <c r="AC96" s="46"/>
+      <c r="AD96" s="46"/>
+      <c r="AE96" s="46"/>
+      <c r="AF96" s="46"/>
+      <c r="AG96" s="46"/>
+      <c r="AH96" s="46"/>
+      <c r="AI96" s="46"/>
+      <c r="AJ96" s="46"/>
+      <c r="AK96" s="46"/>
+      <c r="AL96" s="46"/>
+      <c r="AM96" s="46"/>
+      <c r="AN96" s="46"/>
+      <c r="AO96" s="46"/>
+      <c r="AP96" s="46"/>
+      <c r="AQ96" s="46"/>
+      <c r="AR96" s="46"/>
+    </row>
+    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
+      <c r="E97" s="46"/>
+      <c r="F97" s="46"/>
+      <c r="G97" s="46"/>
+      <c r="H97" s="46"/>
+      <c r="I97" s="46"/>
+      <c r="J97" s="46"/>
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="46"/>
+      <c r="N97" s="46"/>
+      <c r="O97" s="46"/>
+      <c r="P97" s="46"/>
+      <c r="Q97" s="46"/>
+      <c r="R97" s="46"/>
+      <c r="S97" s="46"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="46"/>
+      <c r="V97" s="46"/>
+      <c r="W97" s="46"/>
+      <c r="X97" s="46"/>
+      <c r="Y97" s="46"/>
+      <c r="Z97" s="46"/>
+      <c r="AA97" s="46"/>
+      <c r="AB97" s="46"/>
+      <c r="AC97" s="46"/>
+      <c r="AD97" s="46"/>
+      <c r="AE97" s="46"/>
+      <c r="AF97" s="46"/>
+      <c r="AG97" s="46"/>
+      <c r="AH97" s="46"/>
+      <c r="AI97" s="46"/>
+      <c r="AJ97" s="46"/>
+      <c r="AK97" s="46"/>
+      <c r="AL97" s="46"/>
+      <c r="AM97" s="46"/>
+      <c r="AN97" s="46"/>
+      <c r="AO97" s="46"/>
+      <c r="AP97" s="46"/>
+      <c r="AQ97" s="46"/>
+      <c r="AR97" s="46"/>
+    </row>
+    <row r="98" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="46"/>
+      <c r="G98" s="46"/>
+      <c r="H98" s="46"/>
+      <c r="I98" s="46"/>
+      <c r="J98" s="46"/>
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="46"/>
+      <c r="O98" s="46"/>
+      <c r="P98" s="46"/>
+      <c r="Q98" s="46"/>
+      <c r="R98" s="46"/>
+      <c r="S98" s="46"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="46"/>
+      <c r="V98" s="46"/>
+      <c r="W98" s="46"/>
+      <c r="X98" s="46"/>
+      <c r="Y98" s="46"/>
+      <c r="Z98" s="46"/>
+      <c r="AA98" s="46"/>
+      <c r="AB98" s="46"/>
+      <c r="AC98" s="46"/>
+      <c r="AD98" s="46"/>
+      <c r="AE98" s="46"/>
+      <c r="AF98" s="46"/>
+      <c r="AG98" s="46"/>
+      <c r="AH98" s="46"/>
+      <c r="AI98" s="46"/>
+      <c r="AJ98" s="46"/>
+      <c r="AK98" s="46"/>
+      <c r="AL98" s="46"/>
+      <c r="AM98" s="46"/>
+      <c r="AN98" s="46"/>
+      <c r="AO98" s="46"/>
+      <c r="AP98" s="46"/>
+      <c r="AQ98" s="46"/>
+      <c r="AR98" s="46"/>
+    </row>
+    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A99" s="46"/>
+      <c r="B99" s="46"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="46"/>
+      <c r="G99" s="46"/>
+      <c r="H99" s="46"/>
+      <c r="I99" s="46"/>
+      <c r="J99" s="46"/>
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="46"/>
+      <c r="N99" s="46"/>
+      <c r="O99" s="46"/>
+      <c r="P99" s="46"/>
+      <c r="Q99" s="46"/>
+      <c r="R99" s="46"/>
+      <c r="S99" s="46"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="46"/>
+      <c r="V99" s="46"/>
+      <c r="W99" s="46"/>
+      <c r="X99" s="46"/>
+      <c r="Y99" s="46"/>
+      <c r="Z99" s="46"/>
+      <c r="AA99" s="46"/>
+      <c r="AB99" s="46"/>
+      <c r="AC99" s="46"/>
+      <c r="AD99" s="46"/>
+      <c r="AE99" s="46"/>
+      <c r="AF99" s="46"/>
+      <c r="AG99" s="46"/>
+      <c r="AH99" s="46"/>
+      <c r="AI99" s="46"/>
+      <c r="AJ99" s="46"/>
+      <c r="AK99" s="46"/>
+      <c r="AL99" s="46"/>
+      <c r="AM99" s="46"/>
+      <c r="AN99" s="46"/>
+      <c r="AO99" s="46"/>
+      <c r="AP99" s="46"/>
+      <c r="AQ99" s="46"/>
+      <c r="AR99" s="46"/>
+    </row>
+    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A100" s="46"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="46"/>
+      <c r="G100" s="46"/>
+      <c r="H100" s="46"/>
+      <c r="I100" s="46"/>
+      <c r="J100" s="46"/>
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="46"/>
+      <c r="N100" s="46"/>
+      <c r="O100" s="46"/>
+      <c r="P100" s="46"/>
+      <c r="Q100" s="46"/>
+      <c r="R100" s="46"/>
+      <c r="S100" s="46"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="46"/>
+      <c r="V100" s="46"/>
+      <c r="W100" s="46"/>
+      <c r="X100" s="46"/>
+      <c r="Y100" s="46"/>
+      <c r="Z100" s="46"/>
+      <c r="AA100" s="46"/>
+      <c r="AB100" s="46"/>
+      <c r="AC100" s="46"/>
+      <c r="AD100" s="46"/>
+      <c r="AE100" s="46"/>
+      <c r="AF100" s="46"/>
+      <c r="AG100" s="46"/>
+      <c r="AH100" s="46"/>
+      <c r="AI100" s="46"/>
+      <c r="AJ100" s="46"/>
+      <c r="AK100" s="46"/>
+      <c r="AL100" s="46"/>
+      <c r="AM100" s="46"/>
+      <c r="AN100" s="46"/>
+      <c r="AO100" s="46"/>
+      <c r="AP100" s="46"/>
+      <c r="AQ100" s="46"/>
+      <c r="AR100" s="46"/>
+    </row>
+    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A101" s="46"/>
+      <c r="B101" s="46"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="46"/>
+      <c r="E101" s="46"/>
+      <c r="F101" s="46"/>
+      <c r="G101" s="46"/>
+      <c r="H101" s="46"/>
+      <c r="I101" s="46"/>
+      <c r="J101" s="46"/>
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="46"/>
+      <c r="N101" s="46"/>
+      <c r="O101" s="46"/>
+      <c r="P101" s="46"/>
+      <c r="Q101" s="46"/>
+      <c r="R101" s="46"/>
+      <c r="S101" s="46"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="46"/>
+      <c r="V101" s="46"/>
+      <c r="W101" s="46"/>
+      <c r="X101" s="46"/>
+      <c r="Y101" s="46"/>
+      <c r="Z101" s="46"/>
+      <c r="AA101" s="46"/>
+      <c r="AB101" s="46"/>
+      <c r="AC101" s="46"/>
+      <c r="AD101" s="46"/>
+      <c r="AE101" s="46"/>
+      <c r="AF101" s="46"/>
+      <c r="AG101" s="46"/>
+      <c r="AH101" s="46"/>
+      <c r="AI101" s="46"/>
+      <c r="AJ101" s="46"/>
+      <c r="AK101" s="46"/>
+      <c r="AL101" s="46"/>
+      <c r="AM101" s="46"/>
+      <c r="AN101" s="46"/>
+      <c r="AO101" s="46"/>
+      <c r="AP101" s="46"/>
+      <c r="AQ101" s="46"/>
+      <c r="AR101" s="46"/>
+    </row>
+    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A102" s="46"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46"/>
+      <c r="G102" s="46"/>
+      <c r="H102" s="46"/>
+      <c r="I102" s="46"/>
+      <c r="J102" s="46"/>
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="46"/>
+      <c r="N102" s="46"/>
+      <c r="O102" s="46"/>
+      <c r="P102" s="46"/>
+      <c r="Q102" s="46"/>
+      <c r="R102" s="46"/>
+      <c r="S102" s="46"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="46"/>
+      <c r="V102" s="46"/>
+      <c r="W102" s="46"/>
+      <c r="X102" s="46"/>
+      <c r="Y102" s="46"/>
+      <c r="Z102" s="46"/>
+      <c r="AA102" s="46"/>
+      <c r="AB102" s="46"/>
+      <c r="AC102" s="46"/>
+      <c r="AD102" s="46"/>
+      <c r="AE102" s="46"/>
+      <c r="AF102" s="46"/>
+      <c r="AG102" s="46"/>
+      <c r="AH102" s="46"/>
+      <c r="AI102" s="46"/>
+      <c r="AJ102" s="46"/>
+      <c r="AK102" s="46"/>
+      <c r="AL102" s="46"/>
+      <c r="AM102" s="46"/>
+      <c r="AN102" s="46"/>
+      <c r="AO102" s="46"/>
+      <c r="AP102" s="46"/>
+      <c r="AQ102" s="46"/>
+      <c r="AR102" s="46"/>
+    </row>
+    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A103" s="46"/>
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="46"/>
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46"/>
+      <c r="O103" s="46"/>
+      <c r="P103" s="46"/>
+      <c r="Q103" s="46"/>
+      <c r="R103" s="46"/>
+      <c r="S103" s="46"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="46"/>
+      <c r="V103" s="46"/>
+      <c r="W103" s="46"/>
+      <c r="X103" s="46"/>
+      <c r="Y103" s="46"/>
+      <c r="Z103" s="46"/>
+      <c r="AA103" s="46"/>
+      <c r="AB103" s="46"/>
+      <c r="AC103" s="46"/>
+      <c r="AD103" s="46"/>
+      <c r="AE103" s="46"/>
+      <c r="AF103" s="46"/>
+      <c r="AG103" s="46"/>
+      <c r="AH103" s="46"/>
+      <c r="AI103" s="46"/>
+      <c r="AJ103" s="46"/>
+      <c r="AK103" s="46"/>
+      <c r="AL103" s="46"/>
+      <c r="AM103" s="46"/>
+      <c r="AN103" s="46"/>
+      <c r="AO103" s="46"/>
+      <c r="AP103" s="46"/>
+      <c r="AQ103" s="46"/>
+      <c r="AR103" s="46"/>
+    </row>
+    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A104" s="46"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
+      <c r="F104" s="46"/>
+      <c r="G104" s="46"/>
+      <c r="H104" s="46"/>
+      <c r="I104" s="46"/>
+      <c r="J104" s="46"/>
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="46"/>
+      <c r="N104" s="46"/>
+      <c r="O104" s="46"/>
+      <c r="P104" s="46"/>
+      <c r="Q104" s="46"/>
+      <c r="R104" s="46"/>
+      <c r="S104" s="46"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="46"/>
+      <c r="V104" s="46"/>
+      <c r="W104" s="46"/>
+      <c r="X104" s="46"/>
+      <c r="Y104" s="46"/>
+      <c r="Z104" s="46"/>
+      <c r="AA104" s="46"/>
+      <c r="AB104" s="46"/>
+      <c r="AC104" s="46"/>
+      <c r="AD104" s="46"/>
+      <c r="AE104" s="46"/>
+      <c r="AF104" s="46"/>
+      <c r="AG104" s="46"/>
+      <c r="AH104" s="46"/>
+      <c r="AI104" s="46"/>
+      <c r="AJ104" s="46"/>
+      <c r="AK104" s="46"/>
+      <c r="AL104" s="46"/>
+      <c r="AM104" s="46"/>
+      <c r="AN104" s="46"/>
+      <c r="AO104" s="46"/>
+      <c r="AP104" s="46"/>
+      <c r="AQ104" s="46"/>
+      <c r="AR104" s="46"/>
+    </row>
+    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A105" s="46"/>
+      <c r="B105" s="46"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="46"/>
+      <c r="E105" s="46"/>
+      <c r="F105" s="46"/>
+      <c r="G105" s="46"/>
+      <c r="H105" s="46"/>
+      <c r="I105" s="46"/>
+      <c r="J105" s="46"/>
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="46"/>
+      <c r="N105" s="46"/>
+      <c r="O105" s="46"/>
+      <c r="P105" s="46"/>
+      <c r="Q105" s="46"/>
+      <c r="R105" s="46"/>
+      <c r="S105" s="46"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="46"/>
+      <c r="V105" s="46"/>
+      <c r="W105" s="46"/>
+      <c r="X105" s="46"/>
+      <c r="Y105" s="46"/>
+      <c r="Z105" s="46"/>
+      <c r="AA105" s="46"/>
+      <c r="AB105" s="46"/>
+      <c r="AC105" s="46"/>
+      <c r="AD105" s="46"/>
+      <c r="AE105" s="46"/>
+      <c r="AF105" s="46"/>
+      <c r="AG105" s="46"/>
+      <c r="AH105" s="46"/>
+      <c r="AI105" s="46"/>
+      <c r="AJ105" s="46"/>
+      <c r="AK105" s="46"/>
+      <c r="AL105" s="46"/>
+      <c r="AM105" s="46"/>
+      <c r="AN105" s="46"/>
+      <c r="AO105" s="46"/>
+      <c r="AP105" s="46"/>
+      <c r="AQ105" s="46"/>
+      <c r="AR105" s="46"/>
+    </row>
+    <row r="106" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A106" s="46"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="46"/>
+      <c r="G106" s="46"/>
+      <c r="H106" s="46"/>
+      <c r="I106" s="46"/>
+      <c r="J106" s="46"/>
+      <c r="K106" s="46"/>
+      <c r="L106" s="46"/>
+      <c r="M106" s="46"/>
+      <c r="N106" s="46"/>
+      <c r="O106" s="46"/>
+      <c r="P106" s="46"/>
+      <c r="Q106" s="46"/>
+      <c r="R106" s="46"/>
+      <c r="S106" s="46"/>
+      <c r="T106" s="46"/>
+      <c r="U106" s="46"/>
+      <c r="V106" s="46"/>
+      <c r="W106" s="46"/>
+      <c r="X106" s="46"/>
+      <c r="Y106" s="46"/>
+      <c r="Z106" s="46"/>
+      <c r="AA106" s="46"/>
+      <c r="AB106" s="46"/>
+      <c r="AC106" s="46"/>
+      <c r="AD106" s="46"/>
+      <c r="AE106" s="46"/>
+      <c r="AF106" s="46"/>
+      <c r="AG106" s="46"/>
+      <c r="AH106" s="46"/>
+      <c r="AI106" s="46"/>
+      <c r="AJ106" s="46"/>
+      <c r="AK106" s="46"/>
+      <c r="AL106" s="46"/>
+      <c r="AM106" s="46"/>
+      <c r="AN106" s="46"/>
+      <c r="AO106" s="46"/>
+      <c r="AP106" s="46"/>
+      <c r="AQ106" s="46"/>
+      <c r="AR106" s="46"/>
+    </row>
+    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A107" s="46"/>
+      <c r="B107" s="46"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
+      <c r="F107" s="46"/>
+      <c r="G107" s="46"/>
+      <c r="H107" s="46"/>
+      <c r="I107" s="46"/>
+      <c r="J107" s="46"/>
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="46"/>
+      <c r="N107" s="46"/>
+      <c r="O107" s="46"/>
+      <c r="P107" s="46"/>
+      <c r="Q107" s="46"/>
+      <c r="R107" s="46"/>
+      <c r="S107" s="46"/>
+      <c r="T107" s="46"/>
+      <c r="U107" s="46"/>
+      <c r="V107" s="46"/>
+      <c r="W107" s="46"/>
+      <c r="X107" s="46"/>
+      <c r="Y107" s="46"/>
+      <c r="Z107" s="46"/>
+      <c r="AA107" s="46"/>
+      <c r="AB107" s="46"/>
+      <c r="AC107" s="46"/>
+      <c r="AD107" s="46"/>
+      <c r="AE107" s="46"/>
+      <c r="AF107" s="46"/>
+      <c r="AG107" s="46"/>
+      <c r="AH107" s="46"/>
+      <c r="AI107" s="46"/>
+      <c r="AJ107" s="46"/>
+      <c r="AK107" s="46"/>
+      <c r="AL107" s="46"/>
+      <c r="AM107" s="46"/>
+      <c r="AN107" s="46"/>
+      <c r="AO107" s="46"/>
+      <c r="AP107" s="46"/>
+      <c r="AQ107" s="46"/>
+      <c r="AR107" s="46"/>
+    </row>
+    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A108" s="46"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
+      <c r="F108" s="46"/>
+      <c r="G108" s="46"/>
+      <c r="H108" s="46"/>
+      <c r="I108" s="46"/>
+      <c r="J108" s="46"/>
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="46"/>
+      <c r="N108" s="46"/>
+      <c r="O108" s="46"/>
+      <c r="P108" s="46"/>
+      <c r="Q108" s="46"/>
+      <c r="R108" s="46"/>
+      <c r="S108" s="46"/>
+      <c r="T108" s="46"/>
+      <c r="U108" s="46"/>
+      <c r="V108" s="46"/>
+      <c r="W108" s="46"/>
+      <c r="X108" s="46"/>
+      <c r="Y108" s="46"/>
+      <c r="Z108" s="46"/>
+      <c r="AA108" s="46"/>
+      <c r="AB108" s="46"/>
+      <c r="AC108" s="46"/>
+      <c r="AD108" s="46"/>
+      <c r="AE108" s="46"/>
+      <c r="AF108" s="46"/>
+      <c r="AG108" s="46"/>
+      <c r="AH108" s="46"/>
+      <c r="AI108" s="46"/>
+      <c r="AJ108" s="46"/>
+      <c r="AK108" s="46"/>
+      <c r="AL108" s="46"/>
+      <c r="AM108" s="46"/>
+      <c r="AN108" s="46"/>
+      <c r="AO108" s="46"/>
+      <c r="AP108" s="46"/>
+      <c r="AQ108" s="46"/>
+      <c r="AR108" s="46"/>
+    </row>
+    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A109" s="46"/>
+      <c r="B109" s="46"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
+      <c r="F109" s="46"/>
+      <c r="G109" s="46"/>
+      <c r="H109" s="46"/>
+      <c r="I109" s="46"/>
+      <c r="J109" s="46"/>
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="46"/>
+      <c r="N109" s="46"/>
+      <c r="O109" s="46"/>
+      <c r="P109" s="46"/>
+      <c r="Q109" s="46"/>
+      <c r="R109" s="46"/>
+      <c r="S109" s="46"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="46"/>
+      <c r="V109" s="46"/>
+      <c r="W109" s="46"/>
+      <c r="X109" s="46"/>
+      <c r="Y109" s="46"/>
+      <c r="Z109" s="46"/>
+      <c r="AA109" s="46"/>
+      <c r="AB109" s="46"/>
+      <c r="AC109" s="46"/>
+      <c r="AD109" s="46"/>
+      <c r="AE109" s="46"/>
+      <c r="AF109" s="46"/>
+      <c r="AG109" s="46"/>
+      <c r="AH109" s="46"/>
+      <c r="AI109" s="46"/>
+      <c r="AJ109" s="46"/>
+      <c r="AK109" s="46"/>
+      <c r="AL109" s="46"/>
+      <c r="AM109" s="46"/>
+      <c r="AN109" s="46"/>
+      <c r="AO109" s="46"/>
+      <c r="AP109" s="46"/>
+      <c r="AQ109" s="46"/>
+      <c r="AR109" s="46"/>
+    </row>
+    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A110" s="46"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="46"/>
+      <c r="E110" s="46"/>
+      <c r="F110" s="46"/>
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="46"/>
+      <c r="J110" s="46"/>
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="46"/>
+      <c r="N110" s="46"/>
+      <c r="O110" s="46"/>
+      <c r="P110" s="46"/>
+      <c r="Q110" s="46"/>
+      <c r="R110" s="46"/>
+      <c r="S110" s="46"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="46"/>
+      <c r="V110" s="46"/>
+      <c r="W110" s="46"/>
+      <c r="X110" s="46"/>
+      <c r="Y110" s="46"/>
+      <c r="Z110" s="46"/>
+      <c r="AA110" s="46"/>
+      <c r="AB110" s="46"/>
+      <c r="AC110" s="46"/>
+      <c r="AD110" s="46"/>
+      <c r="AE110" s="46"/>
+      <c r="AF110" s="46"/>
+      <c r="AG110" s="46"/>
+      <c r="AH110" s="46"/>
+      <c r="AI110" s="46"/>
+      <c r="AJ110" s="46"/>
+      <c r="AK110" s="46"/>
+      <c r="AL110" s="46"/>
+      <c r="AM110" s="46"/>
+      <c r="AN110" s="46"/>
+      <c r="AO110" s="46"/>
+      <c r="AP110" s="46"/>
+      <c r="AQ110" s="46"/>
+      <c r="AR110" s="46"/>
+    </row>
+    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A111" s="46"/>
+      <c r="B111" s="46"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="46"/>
+      <c r="G111" s="46"/>
+      <c r="H111" s="46"/>
+      <c r="I111" s="46"/>
+      <c r="J111" s="46"/>
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="46"/>
+      <c r="N111" s="46"/>
+      <c r="O111" s="46"/>
+      <c r="P111" s="46"/>
+      <c r="Q111" s="46"/>
+      <c r="R111" s="46"/>
+      <c r="S111" s="46"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="46"/>
+      <c r="V111" s="46"/>
+      <c r="W111" s="46"/>
+      <c r="X111" s="46"/>
+      <c r="Y111" s="46"/>
+      <c r="Z111" s="46"/>
+      <c r="AA111" s="46"/>
+      <c r="AB111" s="46"/>
+      <c r="AC111" s="46"/>
+      <c r="AD111" s="46"/>
+      <c r="AE111" s="46"/>
+      <c r="AF111" s="46"/>
+      <c r="AG111" s="46"/>
+      <c r="AH111" s="46"/>
+      <c r="AI111" s="46"/>
+      <c r="AJ111" s="46"/>
+      <c r="AK111" s="46"/>
+      <c r="AL111" s="46"/>
+      <c r="AM111" s="46"/>
+      <c r="AN111" s="46"/>
+      <c r="AO111" s="46"/>
+      <c r="AP111" s="46"/>
+      <c r="AQ111" s="46"/>
+      <c r="AR111" s="46"/>
+    </row>
+    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A112" s="46"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="46"/>
+      <c r="G112" s="46"/>
+      <c r="H112" s="46"/>
+      <c r="I112" s="46"/>
+      <c r="J112" s="46"/>
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="46"/>
+      <c r="N112" s="46"/>
+      <c r="O112" s="46"/>
+      <c r="P112" s="46"/>
+      <c r="Q112" s="46"/>
+      <c r="R112" s="46"/>
+      <c r="S112" s="46"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="46"/>
+      <c r="V112" s="46"/>
+      <c r="W112" s="46"/>
+      <c r="X112" s="46"/>
+      <c r="Y112" s="46"/>
+      <c r="Z112" s="46"/>
+      <c r="AA112" s="46"/>
+      <c r="AB112" s="46"/>
+      <c r="AC112" s="46"/>
+      <c r="AD112" s="46"/>
+      <c r="AE112" s="46"/>
+      <c r="AF112" s="46"/>
+      <c r="AG112" s="46"/>
+      <c r="AH112" s="46"/>
+      <c r="AI112" s="46"/>
+      <c r="AJ112" s="46"/>
+      <c r="AK112" s="46"/>
+      <c r="AL112" s="46"/>
+      <c r="AM112" s="46"/>
+      <c r="AN112" s="46"/>
+      <c r="AO112" s="46"/>
+      <c r="AP112" s="46"/>
+      <c r="AQ112" s="46"/>
+      <c r="AR112" s="46"/>
+    </row>
+    <row r="113" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A113" s="46"/>
+      <c r="B113" s="46"/>
+      <c r="C113" s="46"/>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="46"/>
+      <c r="G113" s="46"/>
+      <c r="H113" s="46"/>
+      <c r="I113" s="46"/>
+      <c r="J113" s="46"/>
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="46"/>
+      <c r="N113" s="46"/>
+      <c r="O113" s="46"/>
+      <c r="P113" s="46"/>
+      <c r="Q113" s="46"/>
+      <c r="R113" s="46"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="46"/>
+      <c r="V113" s="46"/>
+      <c r="W113" s="46"/>
+      <c r="X113" s="46"/>
+      <c r="Y113" s="46"/>
+      <c r="Z113" s="46"/>
+      <c r="AA113" s="46"/>
+      <c r="AB113" s="46"/>
+      <c r="AC113" s="46"/>
+      <c r="AD113" s="46"/>
+      <c r="AE113" s="46"/>
+      <c r="AF113" s="46"/>
+      <c r="AG113" s="46"/>
+      <c r="AH113" s="46"/>
+      <c r="AI113" s="46"/>
+      <c r="AJ113" s="46"/>
+      <c r="AK113" s="46"/>
+      <c r="AL113" s="46"/>
+      <c r="AM113" s="46"/>
+      <c r="AN113" s="46"/>
+      <c r="AO113" s="46"/>
+      <c r="AP113" s="46"/>
+      <c r="AQ113" s="46"/>
+      <c r="AR113" s="46"/>
+    </row>
+    <row r="114" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A114" s="46"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="46"/>
+      <c r="D114" s="46"/>
+      <c r="E114" s="46"/>
+      <c r="F114" s="46"/>
+      <c r="G114" s="46"/>
+      <c r="H114" s="46"/>
+      <c r="I114" s="46"/>
+      <c r="J114" s="46"/>
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="46"/>
+      <c r="N114" s="46"/>
+      <c r="O114" s="46"/>
+      <c r="P114" s="46"/>
+      <c r="Q114" s="46"/>
+      <c r="R114" s="46"/>
+      <c r="S114" s="46"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="46"/>
+      <c r="V114" s="46"/>
+      <c r="W114" s="46"/>
+      <c r="X114" s="46"/>
+      <c r="Y114" s="46"/>
+      <c r="Z114" s="46"/>
+      <c r="AA114" s="46"/>
+      <c r="AB114" s="46"/>
+      <c r="AC114" s="46"/>
+      <c r="AD114" s="46"/>
+      <c r="AE114" s="46"/>
+      <c r="AF114" s="46"/>
+      <c r="AG114" s="46"/>
+      <c r="AH114" s="46"/>
+      <c r="AI114" s="46"/>
+      <c r="AJ114" s="46"/>
+      <c r="AK114" s="46"/>
+      <c r="AL114" s="46"/>
+      <c r="AM114" s="46"/>
+      <c r="AN114" s="46"/>
+      <c r="AO114" s="46"/>
+      <c r="AP114" s="46"/>
+      <c r="AQ114" s="46"/>
+      <c r="AR114" s="46"/>
+    </row>
+    <row r="115" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A115" s="46"/>
+      <c r="B115" s="46"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="46"/>
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="46"/>
+      <c r="N115" s="46"/>
+      <c r="O115" s="46"/>
+      <c r="P115" s="46"/>
+      <c r="Q115" s="46"/>
+      <c r="R115" s="46"/>
+      <c r="S115" s="46"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="46"/>
+      <c r="V115" s="46"/>
+      <c r="W115" s="46"/>
+      <c r="X115" s="46"/>
+      <c r="Y115" s="46"/>
+      <c r="Z115" s="46"/>
+      <c r="AA115" s="46"/>
+      <c r="AB115" s="46"/>
+      <c r="AC115" s="46"/>
+      <c r="AD115" s="46"/>
+      <c r="AE115" s="46"/>
+      <c r="AF115" s="46"/>
+      <c r="AG115" s="46"/>
+      <c r="AH115" s="46"/>
+      <c r="AI115" s="46"/>
+      <c r="AJ115" s="46"/>
+      <c r="AK115" s="46"/>
+      <c r="AL115" s="46"/>
+      <c r="AM115" s="46"/>
+      <c r="AN115" s="46"/>
+      <c r="AO115" s="46"/>
+      <c r="AP115" s="46"/>
+      <c r="AQ115" s="46"/>
+      <c r="AR115" s="46"/>
+    </row>
+    <row r="116" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A116" s="46"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="46"/>
+      <c r="E116" s="46"/>
+      <c r="F116" s="46"/>
+      <c r="G116" s="46"/>
+      <c r="H116" s="46"/>
+      <c r="I116" s="46"/>
+      <c r="J116" s="46"/>
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="46"/>
+      <c r="N116" s="46"/>
+      <c r="O116" s="46"/>
+      <c r="P116" s="46"/>
+      <c r="Q116" s="46"/>
+      <c r="R116" s="46"/>
+      <c r="S116" s="46"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="46"/>
+      <c r="V116" s="46"/>
+      <c r="W116" s="46"/>
+      <c r="X116" s="46"/>
+      <c r="Y116" s="46"/>
+      <c r="Z116" s="46"/>
+      <c r="AA116" s="46"/>
+      <c r="AB116" s="46"/>
+      <c r="AC116" s="46"/>
+      <c r="AD116" s="46"/>
+      <c r="AE116" s="46"/>
+      <c r="AF116" s="46"/>
+      <c r="AG116" s="46"/>
+      <c r="AH116" s="46"/>
+      <c r="AI116" s="46"/>
+      <c r="AJ116" s="46"/>
+      <c r="AK116" s="46"/>
+      <c r="AL116" s="46"/>
+      <c r="AM116" s="46"/>
+      <c r="AN116" s="46"/>
+      <c r="AO116" s="46"/>
+      <c r="AP116" s="46"/>
+      <c r="AQ116" s="46"/>
+      <c r="AR116" s="46"/>
+    </row>
+    <row r="117" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A117" s="46"/>
+      <c r="B117" s="46"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="46"/>
+      <c r="E117" s="46"/>
+      <c r="F117" s="46"/>
+      <c r="G117" s="46"/>
+      <c r="H117" s="46"/>
+      <c r="I117" s="46"/>
+      <c r="J117" s="46"/>
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="46"/>
+      <c r="N117" s="46"/>
+      <c r="O117" s="46"/>
+      <c r="P117" s="46"/>
+      <c r="Q117" s="46"/>
+      <c r="R117" s="46"/>
+      <c r="S117" s="46"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="46"/>
+      <c r="V117" s="46"/>
+      <c r="W117" s="46"/>
+      <c r="X117" s="46"/>
+      <c r="Y117" s="46"/>
+      <c r="Z117" s="46"/>
+      <c r="AA117" s="46"/>
+      <c r="AB117" s="46"/>
+      <c r="AC117" s="46"/>
+      <c r="AD117" s="46"/>
+      <c r="AE117" s="46"/>
+      <c r="AF117" s="46"/>
+      <c r="AG117" s="46"/>
+      <c r="AH117" s="46"/>
+      <c r="AI117" s="46"/>
+      <c r="AJ117" s="46"/>
+      <c r="AK117" s="46"/>
+      <c r="AL117" s="46"/>
+      <c r="AM117" s="46"/>
+      <c r="AN117" s="46"/>
+      <c r="AO117" s="46"/>
+      <c r="AP117" s="46"/>
+      <c r="AQ117" s="46"/>
+      <c r="AR117" s="46"/>
+    </row>
+    <row r="118" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A118" s="46"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="46"/>
+      <c r="E118" s="46"/>
+      <c r="F118" s="46"/>
+      <c r="G118" s="46"/>
+      <c r="H118" s="46"/>
+      <c r="I118" s="46"/>
+      <c r="J118" s="46"/>
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="46"/>
+      <c r="N118" s="46"/>
+      <c r="O118" s="46"/>
+      <c r="P118" s="46"/>
+      <c r="Q118" s="46"/>
+      <c r="R118" s="46"/>
+      <c r="S118" s="46"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="46"/>
+      <c r="V118" s="46"/>
+      <c r="W118" s="46"/>
+      <c r="X118" s="46"/>
+      <c r="Y118" s="46"/>
+      <c r="Z118" s="46"/>
+      <c r="AA118" s="46"/>
+      <c r="AB118" s="46"/>
+      <c r="AC118" s="46"/>
+      <c r="AD118" s="46"/>
+      <c r="AE118" s="46"/>
+      <c r="AF118" s="46"/>
+      <c r="AG118" s="46"/>
+      <c r="AH118" s="46"/>
+      <c r="AI118" s="46"/>
+      <c r="AJ118" s="46"/>
+      <c r="AK118" s="46"/>
+      <c r="AL118" s="46"/>
+      <c r="AM118" s="46"/>
+      <c r="AN118" s="46"/>
+      <c r="AO118" s="46"/>
+      <c r="AP118" s="46"/>
+      <c r="AQ118" s="46"/>
+      <c r="AR118" s="46"/>
+    </row>
+    <row r="119" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A119" s="46"/>
+      <c r="B119" s="46"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="46"/>
+      <c r="E119" s="46"/>
+      <c r="F119" s="46"/>
+      <c r="G119" s="46"/>
+      <c r="H119" s="46"/>
+      <c r="I119" s="46"/>
+      <c r="J119" s="46"/>
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="46"/>
+      <c r="N119" s="46"/>
+      <c r="O119" s="46"/>
+      <c r="P119" s="46"/>
+      <c r="Q119" s="46"/>
+      <c r="R119" s="46"/>
+      <c r="S119" s="46"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="46"/>
+      <c r="V119" s="46"/>
+      <c r="W119" s="46"/>
+      <c r="X119" s="46"/>
+      <c r="Y119" s="46"/>
+      <c r="Z119" s="46"/>
+      <c r="AA119" s="46"/>
+      <c r="AB119" s="46"/>
+      <c r="AC119" s="46"/>
+      <c r="AD119" s="46"/>
+      <c r="AE119" s="46"/>
+      <c r="AF119" s="46"/>
+      <c r="AG119" s="46"/>
+      <c r="AH119" s="46"/>
+      <c r="AI119" s="46"/>
+      <c r="AJ119" s="46"/>
+      <c r="AK119" s="46"/>
+      <c r="AL119" s="46"/>
+      <c r="AM119" s="46"/>
+      <c r="AN119" s="46"/>
+      <c r="AO119" s="46"/>
+      <c r="AP119" s="46"/>
+      <c r="AQ119" s="46"/>
+      <c r="AR119" s="46"/>
+    </row>
+    <row r="120" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A120" s="46"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="46"/>
+      <c r="D120" s="46"/>
+      <c r="E120" s="46"/>
+      <c r="F120" s="46"/>
+      <c r="G120" s="46"/>
+      <c r="H120" s="46"/>
+      <c r="I120" s="46"/>
+      <c r="J120" s="46"/>
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="46"/>
+      <c r="N120" s="46"/>
+      <c r="O120" s="46"/>
+      <c r="P120" s="46"/>
+      <c r="Q120" s="46"/>
+      <c r="R120" s="46"/>
+      <c r="S120" s="46"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="46"/>
+      <c r="V120" s="46"/>
+      <c r="W120" s="46"/>
+      <c r="X120" s="46"/>
+      <c r="Y120" s="46"/>
+      <c r="Z120" s="46"/>
+      <c r="AA120" s="46"/>
+      <c r="AB120" s="46"/>
+      <c r="AC120" s="46"/>
+      <c r="AD120" s="46"/>
+      <c r="AE120" s="46"/>
+      <c r="AF120" s="46"/>
+      <c r="AG120" s="46"/>
+      <c r="AH120" s="46"/>
+      <c r="AI120" s="46"/>
+      <c r="AJ120" s="46"/>
+      <c r="AK120" s="46"/>
+      <c r="AL120" s="46"/>
+      <c r="AM120" s="46"/>
+      <c r="AN120" s="46"/>
+      <c r="AO120" s="46"/>
+      <c r="AP120" s="46"/>
+      <c r="AQ120" s="46"/>
+      <c r="AR120" s="46"/>
+    </row>
+    <row r="121" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A121" s="46"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="46"/>
+      <c r="E121" s="46"/>
+      <c r="F121" s="46"/>
+      <c r="G121" s="46"/>
+      <c r="H121" s="46"/>
+      <c r="I121" s="46"/>
+      <c r="J121" s="46"/>
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="46"/>
+      <c r="N121" s="46"/>
+      <c r="O121" s="46"/>
+      <c r="P121" s="46"/>
+      <c r="Q121" s="46"/>
+      <c r="R121" s="46"/>
+      <c r="S121" s="46"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="46"/>
+      <c r="V121" s="46"/>
+      <c r="W121" s="46"/>
+      <c r="X121" s="46"/>
+      <c r="Y121" s="46"/>
+      <c r="Z121" s="46"/>
+      <c r="AA121" s="46"/>
+      <c r="AB121" s="46"/>
+      <c r="AC121" s="46"/>
+      <c r="AD121" s="46"/>
+      <c r="AE121" s="46"/>
+      <c r="AF121" s="46"/>
+      <c r="AG121" s="46"/>
+      <c r="AH121" s="46"/>
+      <c r="AI121" s="46"/>
+      <c r="AJ121" s="46"/>
+      <c r="AK121" s="46"/>
+      <c r="AL121" s="46"/>
+      <c r="AM121" s="46"/>
+      <c r="AN121" s="46"/>
+      <c r="AO121" s="46"/>
+      <c r="AP121" s="46"/>
+      <c r="AQ121" s="46"/>
+      <c r="AR121" s="46"/>
+    </row>
+    <row r="122" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A122" s="46"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="F122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="H122" s="46"/>
+      <c r="I122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="46"/>
+      <c r="N122" s="46"/>
+      <c r="O122" s="46"/>
+      <c r="P122" s="46"/>
+      <c r="Q122" s="46"/>
+      <c r="R122" s="46"/>
+      <c r="S122" s="46"/>
+      <c r="T122" s="46"/>
+      <c r="U122" s="46"/>
+      <c r="V122" s="46"/>
+      <c r="W122" s="46"/>
+      <c r="X122" s="46"/>
+      <c r="Y122" s="46"/>
+      <c r="Z122" s="46"/>
+      <c r="AA122" s="46"/>
+      <c r="AB122" s="46"/>
+      <c r="AC122" s="46"/>
+      <c r="AD122" s="46"/>
+      <c r="AE122" s="46"/>
+      <c r="AF122" s="46"/>
+      <c r="AG122" s="46"/>
+      <c r="AH122" s="46"/>
+      <c r="AI122" s="46"/>
+      <c r="AJ122" s="46"/>
+      <c r="AK122" s="46"/>
+      <c r="AL122" s="46"/>
+      <c r="AM122" s="46"/>
+      <c r="AN122" s="46"/>
+      <c r="AO122" s="46"/>
+      <c r="AP122" s="46"/>
+      <c r="AQ122" s="46"/>
+      <c r="AR122" s="46"/>
+    </row>
+    <row r="123" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A123" s="46"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="46"/>
+      <c r="D123" s="46"/>
+      <c r="E123" s="46"/>
+      <c r="F123" s="46"/>
+      <c r="G123" s="46"/>
+      <c r="H123" s="46"/>
+      <c r="I123" s="46"/>
+      <c r="J123" s="46"/>
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="46"/>
+      <c r="N123" s="46"/>
+      <c r="O123" s="46"/>
+      <c r="P123" s="46"/>
+      <c r="Q123" s="46"/>
+      <c r="R123" s="46"/>
+      <c r="S123" s="46"/>
+      <c r="T123" s="46"/>
+      <c r="U123" s="46"/>
+      <c r="V123" s="46"/>
+      <c r="W123" s="46"/>
+      <c r="X123" s="46"/>
+      <c r="Y123" s="46"/>
+      <c r="Z123" s="46"/>
+      <c r="AA123" s="46"/>
+      <c r="AB123" s="46"/>
+      <c r="AC123" s="46"/>
+      <c r="AD123" s="46"/>
+      <c r="AE123" s="46"/>
+      <c r="AF123" s="46"/>
+      <c r="AG123" s="46"/>
+      <c r="AH123" s="46"/>
+      <c r="AI123" s="46"/>
+      <c r="AJ123" s="46"/>
+      <c r="AK123" s="46"/>
+      <c r="AL123" s="46"/>
+      <c r="AM123" s="46"/>
+      <c r="AN123" s="46"/>
+      <c r="AO123" s="46"/>
+      <c r="AP123" s="46"/>
+      <c r="AQ123" s="46"/>
+      <c r="AR123" s="46"/>
     </row>
   </sheetData>
-  <sortState ref="A6:B30">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B30">
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -4308,13 +8517,6 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Allocation Sheet" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -3344,7 +3344,7 @@
   <dimension ref="A1:AR123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3664,7 +3664,9 @@
       <c r="H9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="18">
+        <v>5170</v>
+      </c>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
@@ -8513,7 +8515,7 @@
     <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0.2" header="0" footer="0"/>
+  <pageMargins left="0.19685039370078741" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="70" orientation="portrait" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
   <drawing r:id="rId2"/>

--- a/2020/Others/Allocation Sheet.xlsx
+++ b/2020/Others/Allocation Sheet.xlsx
@@ -658,33 +658,6 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -727,6 +700,33 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -766,7 +766,7 @@
         <xdr:cNvPr id="2" name="Straight Connector 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +817,7 @@
         <xdr:cNvPr id="3" name="Straight Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -868,7 +868,7 @@
         <xdr:cNvPr id="22" name="Group 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,7 +889,7 @@
           <xdr:cNvPr id="23" name="Freeform 21">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1095,7 +1095,7 @@
           <xdr:cNvPr id="24" name="Freeform 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
           <xdr:cNvPr id="25" name="Freeform 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2636,7 +2636,7 @@
           <xdr:cNvPr id="26" name="Freeform 24">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2696,7 +2696,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2713,7 +2713,7 @@
           <xdr:cNvPr id="27" name="Freeform 25">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2776,7 +2776,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2793,7 +2793,7 @@
           <xdr:cNvPr id="28" name="Freeform 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2853,7 +2853,7 @@
           </a:ln>
           <a:extLst>
             <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -2886,7 +2886,7 @@
         <xdr:cNvPr id="11" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDD7057E-6E36-4569-AA09-EB228BC9746D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BDD7057E-6E36-4569-AA09-EB228BC9746D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2898,7 +2898,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2922,14 +2922,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
               </a:solidFill>
@@ -2939,7 +2939,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -2970,7 +2970,7 @@
         <xdr:cNvPr id="5" name="Straight Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9025D057-A950-4C8A-B845-FC9892FB667B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9025D057-A950-4C8A-B845-FC9892FB667B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3347,7 +3347,7 @@
   <dimension ref="A1:AR123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3369,21 +3369,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="32.25" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
       <c r="P1" s="27"/>
@@ -3399,21 +3399,21 @@
       <c r="Z1" s="27"/>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
       <c r="P2" s="27"/>
@@ -3474,10 +3474,10 @@
       <c r="K4" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="44"/>
+      <c r="M4" s="58"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -4122,7 +4122,9 @@
       <c r="A22" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="16">
+        <v>1020</v>
+      </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
@@ -4338,13 +4340,13 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="54"/>
       <c r="J28" s="7"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
       <c r="M28" s="11"/>
       <c r="N28" s="27"/>
       <c r="O28" s="27"/>
@@ -4372,14 +4374,14 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="50"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="50"/>
+      <c r="M29" s="51"/>
       <c r="N29" s="27"/>
       <c r="O29" s="27"/>
       <c r="P29" s="27"/>
@@ -4412,10 +4414,10 @@
       <c r="I30" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="38"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="52"/>
       <c r="N30" s="27"/>
       <c r="O30" s="27"/>
       <c r="P30" s="27"/>
@@ -4449,7 +4451,7 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-      <c r="M31" s="38"/>
+      <c r="M31" s="52"/>
       <c r="N31" s="27"/>
       <c r="O31" s="27"/>
       <c r="P31" s="27"/>
@@ -4483,7 +4485,7 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-      <c r="M32" s="38"/>
+      <c r="M32" s="52"/>
       <c r="N32" s="27"/>
       <c r="O32" s="27"/>
       <c r="P32" s="27"/>
@@ -4513,7 +4515,7 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-      <c r="M33" s="38"/>
+      <c r="M33" s="52"/>
       <c r="N33" s="27"/>
       <c r="O33" s="27"/>
       <c r="P33" s="27"/>
@@ -4543,7 +4545,7 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-      <c r="M34" s="38"/>
+      <c r="M34" s="52"/>
       <c r="N34" s="27"/>
       <c r="O34" s="27"/>
       <c r="P34" s="27"/>
@@ -4573,7 +4575,7 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-      <c r="M35" s="38"/>
+      <c r="M35" s="52"/>
       <c r="N35" s="27"/>
       <c r="O35" s="27"/>
       <c r="P35" s="27"/>
@@ -4603,7 +4605,7 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-      <c r="M36" s="38"/>
+      <c r="M36" s="52"/>
       <c r="N36" s="27"/>
       <c r="O36" s="27"/>
       <c r="P36" s="27"/>
@@ -4633,7 +4635,7 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-      <c r="M37" s="38"/>
+      <c r="M37" s="52"/>
       <c r="N37" s="27"/>
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
@@ -4663,7 +4665,7 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-      <c r="M38" s="38"/>
+      <c r="M38" s="52"/>
       <c r="N38" s="27"/>
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
@@ -4693,7 +4695,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-      <c r="M39" s="39"/>
+      <c r="M39" s="53"/>
       <c r="N39" s="27"/>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
@@ -4709,25 +4711,25 @@
       <c r="Z39" s="27"/>
     </row>
     <row r="40" spans="1:44">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="45" t="s">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="21"/>
-      <c r="K40" s="47" t="s">
+      <c r="K40" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L40" s="47"/>
-      <c r="M40" s="48"/>
+      <c r="L40" s="38"/>
+      <c r="M40" s="39"/>
       <c r="N40" s="27"/>
       <c r="O40" s="27"/>
       <c r="P40" s="27"/>
@@ -4743,19 +4745,19 @@
       <c r="Z40" s="27"/>
     </row>
     <row r="41" spans="1:44" ht="15.75" customHeight="1">
-      <c r="A41" s="55"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="22"/>
-      <c r="K41" s="49"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="50"/>
+      <c r="K41" s="40"/>
+      <c r="L41" s="40"/>
+      <c r="M41" s="41"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
@@ -4799,25 +4801,25 @@
       <c r="Z42" s="27"/>
     </row>
     <row r="43" spans="1:44">
-      <c r="A43" s="51" t="s">
+      <c r="A43" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="51"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="28"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="57" t="s">
+      <c r="F43" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="G43" s="58"/>
-      <c r="H43" s="58"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="32"/>
       <c r="J43" s="28"/>
-      <c r="K43" s="52" t="s">
+      <c r="K43" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
       <c r="N43" s="27"/>
       <c r="O43" s="27"/>
       <c r="P43" s="27"/>
@@ -4838,9 +4840,9 @@
       <c r="C44" s="28"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
       <c r="I44" s="32"/>
       <c r="J44" s="28"/>
       <c r="K44" s="32"/>
@@ -8499,13 +8501,6 @@
     <sortCondition ref="A6"/>
   </sortState>
   <mergeCells count="15">
-    <mergeCell ref="D40:I41"/>
-    <mergeCell ref="K40:M41"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="A40:C41"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H44"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="M29:M39"/>
     <mergeCell ref="J30:L30"/>
@@ -8514,6 +8509,13 @@
     <mergeCell ref="K28:L28"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D40:I41"/>
+    <mergeCell ref="K40:M41"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="A40:C41"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H44"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0" top="0" bottom="0" header="0" footer="0"/>
